--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="127">
   <si>
     <t>seas_id</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>player_id</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2025</t>
@@ -749,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,22 +873,28 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>32182</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>3462</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>1985</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -894,10 +903,10 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>19</v>
@@ -975,30 +984,36 @@
         <v>22.3</v>
       </c>
       <c r="AJ2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL2" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM2">
+        <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>31585</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>3462</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>1985</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>39</v>
@@ -1007,10 +1022,10 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>71</v>
@@ -1088,30 +1103,36 @@
         <v>25.7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL3" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM3">
+        <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>30873</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3463</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>1985</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>38</v>
@@ -1120,10 +1141,10 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>55</v>
@@ -1201,30 +1222,36 @@
         <v>28.9</v>
       </c>
       <c r="AJ4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL4" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM4">
+        <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>30150</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>3463</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>1985</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5">
         <v>37</v>
@@ -1233,10 +1260,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>56</v>
@@ -1314,30 +1341,36 @@
         <v>30.3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL5" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM5">
+        <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>29371</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>3463</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>1985</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>36</v>
@@ -1346,10 +1379,10 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>45</v>
@@ -1427,30 +1460,36 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM6">
+        <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>28697</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3463</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>1985</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -1459,10 +1498,10 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>67</v>
@@ -1540,30 +1579,36 @@
         <v>25.3</v>
       </c>
       <c r="AJ7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM7">
+        <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>28009</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3463</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>1985</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>34</v>
@@ -1572,10 +1617,10 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8">
         <v>55</v>
@@ -1653,30 +1698,36 @@
         <v>27.4</v>
       </c>
       <c r="AJ8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM8">
+        <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>27322</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>3463</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>1985</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -1685,10 +1736,10 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>82</v>
@@ -1766,30 +1817,36 @@
         <v>27.5</v>
       </c>
       <c r="AJ9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM9">
+        <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>26682</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>3463</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>1985</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10">
         <v>32</v>
@@ -1798,10 +1855,10 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>74</v>
@@ -1879,30 +1936,36 @@
         <v>26.4</v>
       </c>
       <c r="AJ10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM10">
+        <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>26107</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>3463</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>1985</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>31</v>
@@ -1911,10 +1974,10 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>76</v>
@@ -1992,30 +2055,36 @@
         <v>25.3</v>
       </c>
       <c r="AJ11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM11">
+        <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>25491</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>3463</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>1985</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -2024,10 +2093,10 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>69</v>
@@ -2105,30 +2174,36 @@
         <v>25.3</v>
       </c>
       <c r="AJ12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM12">
+        <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>24853</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>3463</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>1985</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13">
         <v>29</v>
@@ -2137,10 +2212,10 @@
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>77</v>
@@ -2218,30 +2293,36 @@
         <v>27.1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM13">
+        <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>24275</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>3463</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>1985</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14">
         <v>28</v>
@@ -2250,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>76</v>
@@ -2331,30 +2412,36 @@
         <v>26.8</v>
       </c>
       <c r="AJ14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL14" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM14">
+        <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>23706</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>3463</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>1985</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -2363,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>62</v>
@@ -2444,30 +2531,36 @@
         <v>27.1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM15">
+        <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>23116</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>3463</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>1985</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16">
         <v>26</v>
@@ -2476,10 +2569,10 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>79</v>
@@ -2557,30 +2650,36 @@
         <v>26.7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL16" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM16">
+        <v>2011</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17">
         <v>22500</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>3463</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <v>1985</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17">
         <v>25</v>
@@ -2589,10 +2688,10 @@
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17">
         <v>76</v>
@@ -2670,30 +2769,36 @@
         <v>29.7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL17" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM17">
+        <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18">
         <v>21909</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>3463</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>1985</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -2702,10 +2807,10 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <v>81</v>
@@ -2783,30 +2888,36 @@
         <v>28.4</v>
       </c>
       <c r="AJ18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL18" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM18">
+        <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19">
         <v>21320</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>3463</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>1985</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19">
         <v>23</v>
@@ -2815,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>75</v>
@@ -2896,30 +3007,36 @@
         <v>30</v>
       </c>
       <c r="AJ19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL19" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM19">
+        <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20">
         <v>20761</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>3463</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E20">
+        <v>1985</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -2928,10 +3045,10 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20">
         <v>78</v>
@@ -3009,30 +3126,36 @@
         <v>27.3</v>
       </c>
       <c r="AJ20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL20" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM20">
+        <v>2007</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21">
         <v>20211</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>3463</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>1985</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21">
         <v>21</v>
@@ -3041,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21">
         <v>79</v>
@@ -3122,30 +3245,36 @@
         <v>31.4</v>
       </c>
       <c r="AJ21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM21">
+        <v>2006</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22">
         <v>19652</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>3463</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <v>1985</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -3154,10 +3283,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22">
         <v>80</v>
@@ -3235,30 +3364,36 @@
         <v>27.2</v>
       </c>
       <c r="AJ22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL22" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM22">
+        <v>2005</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39">
       <c r="A23">
         <v>19051</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>3463</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>1985</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23">
         <v>19</v>
@@ -3267,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23">
         <v>79</v>
@@ -3348,30 +3483,36 @@
         <v>20.9</v>
       </c>
       <c r="AJ23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL23" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM23">
+        <v>2004</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24">
         <v>18568</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>2193</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>1964</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24">
         <v>39</v>
@@ -3380,10 +3521,10 @@
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24">
         <v>82</v>
@@ -3461,30 +3602,36 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL24" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM24">
+        <v>2003</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25">
         <v>18076</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>2193</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <v>1964</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25">
         <v>38</v>
@@ -3493,10 +3640,10 @@
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25">
         <v>60</v>
@@ -3574,30 +3721,36 @@
         <v>22.9</v>
       </c>
       <c r="AJ25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL25" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM25">
+        <v>2002</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26">
         <v>16041</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>2193</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <v>1964</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26">
         <v>34</v>
@@ -3606,10 +3759,10 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26">
         <v>82</v>
@@ -3687,30 +3840,36 @@
         <v>28.7</v>
       </c>
       <c r="AJ26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL26" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM26">
+        <v>1998</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39">
       <c r="A27">
         <v>15484</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>2193</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>1964</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <v>33</v>
@@ -3719,10 +3878,10 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27">
         <v>82</v>
@@ -3800,30 +3959,36 @@
         <v>29.6</v>
       </c>
       <c r="AJ27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL27" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM27">
+        <v>1997</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39">
       <c r="A28">
         <v>14913</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>2193</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>1964</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>32</v>
@@ -3832,10 +3997,10 @@
         <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>82</v>
@@ -3913,30 +4078,36 @@
         <v>30.4</v>
       </c>
       <c r="AJ28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL28" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM28">
+        <v>1996</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39">
       <c r="A29">
         <v>14392</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>2193</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E29">
+        <v>1964</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29">
         <v>31</v>
@@ -3945,10 +4116,10 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29">
         <v>17</v>
@@ -4026,30 +4197,36 @@
         <v>26.9</v>
       </c>
       <c r="AJ29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL29" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM29">
+        <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39">
       <c r="A30">
         <v>13459</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>2193</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>1964</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <v>29</v>
@@ -4058,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30">
         <v>78</v>
@@ -4139,30 +4316,36 @@
         <v>32.6</v>
       </c>
       <c r="AJ30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL30" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM30">
+        <v>1993</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39">
       <c r="A31">
         <v>12990</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>2193</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>1964</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31">
         <v>28</v>
@@ -4171,10 +4354,10 @@
         <v>8</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31">
         <v>80</v>
@@ -4252,30 +4435,36 @@
         <v>30.1</v>
       </c>
       <c r="AJ31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL31" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM31">
+        <v>1992</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39">
       <c r="A32">
         <v>12543</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>2193</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>1964</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32">
         <v>27</v>
@@ -4284,10 +4473,10 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32">
         <v>82</v>
@@ -4365,30 +4554,36 @@
         <v>31.5</v>
       </c>
       <c r="AJ32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL32" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM32">
+        <v>1991</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39">
       <c r="A33">
         <v>12079</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>2193</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>1964</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <v>26</v>
@@ -4397,10 +4592,10 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33">
         <v>82</v>
@@ -4478,30 +4673,36 @@
         <v>33.6</v>
       </c>
       <c r="AJ33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL33" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM33">
+        <v>1990</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39">
       <c r="A34">
         <v>11647</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>2193</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>1964</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -4510,10 +4711,10 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34">
         <v>81</v>
@@ -4591,30 +4792,36 @@
         <v>32.5</v>
       </c>
       <c r="AJ34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL34" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM34">
+        <v>1989</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39">
       <c r="A35">
         <v>11208</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>2193</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>1964</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -4623,10 +4830,10 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>82</v>
@@ -4704,30 +4911,36 @@
         <v>35</v>
       </c>
       <c r="AJ35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL35" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM35">
+        <v>1988</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39">
       <c r="A36">
         <v>10813</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>2193</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>1964</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -4736,10 +4949,10 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36">
         <v>82</v>
@@ -4817,30 +5030,36 @@
         <v>37.1</v>
       </c>
       <c r="AJ36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL36" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM36">
+        <v>1987</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:39">
       <c r="A37">
         <v>10425</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>2193</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>1964</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -4849,10 +5068,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37">
         <v>18</v>
@@ -4930,30 +5149,36 @@
         <v>22.7</v>
       </c>
       <c r="AJ37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL37" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM37">
+        <v>1986</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:39">
       <c r="A38">
         <v>10057</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>2193</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>1964</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38">
         <v>21</v>
@@ -4962,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38">
         <v>82</v>
@@ -5043,13 +5268,16 @@
         <v>28.2</v>
       </c>
       <c r="AJ38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL38" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AM38">
+        <v>1985</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -891,13 +891,13 @@
         <v>76</v>
       </c>
       <c r="E2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F2" t="s">
         <v>78</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -1010,13 +1010,13 @@
         <v>76</v>
       </c>
       <c r="E3">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F3" t="s">
         <v>79</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -1129,13 +1129,13 @@
         <v>76</v>
       </c>
       <c r="E4">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -1248,13 +1248,13 @@
         <v>76</v>
       </c>
       <c r="E5">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F5" t="s">
         <v>79</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -1367,13 +1367,13 @@
         <v>76</v>
       </c>
       <c r="E6">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F6" t="s">
         <v>80</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -1486,13 +1486,13 @@
         <v>76</v>
       </c>
       <c r="E7">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -1605,13 +1605,13 @@
         <v>76</v>
       </c>
       <c r="E8">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -1724,13 +1724,13 @@
         <v>76</v>
       </c>
       <c r="E9">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F9" t="s">
         <v>79</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1843,13 +1843,13 @@
         <v>76</v>
       </c>
       <c r="E10">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -1962,13 +1962,13 @@
         <v>76</v>
       </c>
       <c r="E11">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>13</v>
@@ -2081,13 +2081,13 @@
         <v>76</v>
       </c>
       <c r="E12">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>12</v>
@@ -2200,13 +2200,13 @@
         <v>76</v>
       </c>
       <c r="E13">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -2319,13 +2319,13 @@
         <v>76</v>
       </c>
       <c r="E14">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
       </c>
       <c r="G14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2438,13 +2438,13 @@
         <v>76</v>
       </c>
       <c r="E15">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -2557,13 +2557,13 @@
         <v>76</v>
       </c>
       <c r="E16">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -2676,13 +2676,13 @@
         <v>76</v>
       </c>
       <c r="E17">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F17" t="s">
         <v>78</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -2795,13 +2795,13 @@
         <v>76</v>
       </c>
       <c r="E18">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F18" t="s">
         <v>78</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -2914,13 +2914,13 @@
         <v>76</v>
       </c>
       <c r="E19">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F19" t="s">
         <v>78</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -3033,13 +3033,13 @@
         <v>76</v>
       </c>
       <c r="E20">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -3152,13 +3152,13 @@
         <v>76</v>
       </c>
       <c r="E21">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -3271,13 +3271,13 @@
         <v>76</v>
       </c>
       <c r="E22">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F22" t="s">
         <v>78</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -3390,13 +3390,13 @@
         <v>76</v>
       </c>
       <c r="E23">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3509,13 +3509,13 @@
         <v>77</v>
       </c>
       <c r="E24">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
       <c r="G24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>15</v>
@@ -3628,13 +3628,13 @@
         <v>77</v>
       </c>
       <c r="E25">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F25" t="s">
         <v>78</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>14</v>
@@ -3747,13 +3747,13 @@
         <v>77</v>
       </c>
       <c r="E26">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F26" t="s">
         <v>81</v>
       </c>
       <c r="G26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>13</v>
@@ -3866,13 +3866,13 @@
         <v>77</v>
       </c>
       <c r="E27">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
       </c>
       <c r="G27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -3985,13 +3985,13 @@
         <v>77</v>
       </c>
       <c r="E28">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F28" t="s">
         <v>81</v>
       </c>
       <c r="G28">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -4104,13 +4104,13 @@
         <v>77</v>
       </c>
       <c r="E29">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F29" t="s">
         <v>81</v>
       </c>
       <c r="G29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -4223,13 +4223,13 @@
         <v>77</v>
       </c>
       <c r="E30">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>9</v>
@@ -4342,13 +4342,13 @@
         <v>77</v>
       </c>
       <c r="E31">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F31" t="s">
         <v>81</v>
       </c>
       <c r="G31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>8</v>
@@ -4461,13 +4461,13 @@
         <v>77</v>
       </c>
       <c r="E32">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H32">
         <v>7</v>
@@ -4580,13 +4580,13 @@
         <v>77</v>
       </c>
       <c r="E33">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F33" t="s">
         <v>81</v>
       </c>
       <c r="G33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33">
         <v>6</v>
@@ -4699,13 +4699,13 @@
         <v>77</v>
       </c>
       <c r="E34">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F34" t="s">
         <v>81</v>
       </c>
       <c r="G34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -4818,13 +4818,13 @@
         <v>77</v>
       </c>
       <c r="E35">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F35" t="s">
         <v>81</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -4937,13 +4937,13 @@
         <v>77</v>
       </c>
       <c r="E36">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F36" t="s">
         <v>81</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -5056,13 +5056,13 @@
         <v>77</v>
       </c>
       <c r="E37">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F37" t="s">
         <v>81</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -5175,13 +5175,13 @@
         <v>77</v>
       </c>
       <c r="E38">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F38" t="s">
         <v>81</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38">
         <v>1</v>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1242,7 +1242,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1361,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1480,7 +1480,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1599,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1718,7 +1718,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -1837,7 +1837,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
@@ -1956,7 +1956,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -2075,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -2313,7 +2313,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -2432,7 +2432,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
@@ -2551,7 +2551,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -2670,7 +2670,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -2789,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -2908,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -3027,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -3146,7 +3146,7 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -3265,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -3384,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -885,7 +885,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1242,7 +1242,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1361,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1480,7 +1480,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1599,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1718,7 +1718,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -1837,7 +1837,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
@@ -1956,7 +1956,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -2075,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -2313,7 +2313,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -2432,7 +2432,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
@@ -2551,7 +2551,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -2670,7 +2670,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -2789,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -2908,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -3027,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -3146,7 +3146,7 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -3265,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -3384,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id</t>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year</t>
+    <t>birth_year_x</t>
   </si>
   <si>
     <t>pos</t>
@@ -885,7 +885,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1242,7 +1242,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1361,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1480,7 +1480,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1599,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1718,7 +1718,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -1837,7 +1837,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
@@ -1956,7 +1956,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -2075,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -2313,7 +2313,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -2432,7 +2432,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
@@ -2551,7 +2551,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -2670,7 +2670,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -2789,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -2908,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -3027,7 +3027,7 @@
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -3146,7 +3146,7 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -3265,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -3384,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id_x</t>
+    <t>player_id</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year_x</t>
+    <t>birth_year</t>
   </si>
   <si>
     <t>pos</t>
@@ -133,117 +133,117 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
-    <t>2024</t>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>2002</t>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1990</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
@@ -265,130 +265,130 @@
     <t>NBA</t>
   </si>
   <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>CHI</t>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2019-20</t>
   </si>
   <si>
     <t>2024-25</t>
   </si>
   <si>
-    <t>2023-24</t>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2011-12</t>
   </si>
   <si>
     <t>2022-23</t>
   </si>
   <si>
-    <t>2021-22</t>
-  </si>
-  <si>
     <t>2020-21</t>
   </si>
   <si>
-    <t>2019-20</t>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2013-14</t>
   </si>
   <si>
     <t>2018-19</t>
   </si>
   <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
     <t>2003-04</t>
   </si>
   <si>
+    <t>1992-93</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1995-06</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>1985-86</t>
+  </si>
+  <si>
+    <t>1986-87</t>
+  </si>
+  <si>
     <t>2002-03</t>
   </si>
   <si>
-    <t>2001-02</t>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1994-95</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
+    <t>1984-85</t>
+  </si>
+  <si>
+    <t>1989-90</t>
   </si>
   <si>
     <t>1997-98</t>
-  </si>
-  <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1994-95</t>
-  </si>
-  <si>
-    <t>1992-93</t>
-  </si>
-  <si>
-    <t>1991-92</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1986-87</t>
-  </si>
-  <si>
-    <t>1985-86</t>
-  </si>
-  <si>
-    <t>1984-85</t>
   </si>
   <si>
     <t>No</t>
@@ -879,13 +879,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>32182</v>
+        <v>21909</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -897,10 +897,10 @@
         <v>78</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>82</v>
@@ -909,79 +909,79 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <v>35.1</v>
+        <v>37.7</v>
       </c>
       <c r="N2">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O2">
-        <v>16.8</v>
+        <v>19.9</v>
       </c>
       <c r="P2">
-        <v>0.498</v>
+        <v>0.489</v>
       </c>
       <c r="Q2">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="R2">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="S2">
-        <v>0.388</v>
+        <v>0.344</v>
       </c>
       <c r="T2">
+        <v>8.1</v>
+      </c>
+      <c r="U2">
+        <v>15.2</v>
+      </c>
+      <c r="V2">
+        <v>0.535</v>
+      </c>
+      <c r="W2">
+        <v>0.53</v>
+      </c>
+      <c r="X2">
+        <v>7.3</v>
+      </c>
+      <c r="Y2">
+        <v>9.4</v>
+      </c>
+      <c r="Z2">
+        <v>0.78</v>
+      </c>
+      <c r="AA2">
+        <v>1.3</v>
+      </c>
+      <c r="AB2">
         <v>6.3</v>
       </c>
-      <c r="U2">
-        <v>11.4</v>
-      </c>
-      <c r="V2">
-        <v>0.551</v>
-      </c>
-      <c r="W2">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="X2">
-        <v>3.5</v>
-      </c>
-      <c r="Y2">
-        <v>4.6</v>
-      </c>
-      <c r="Z2">
-        <v>0.75</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
-      <c r="AB2">
-        <v>7.4</v>
-      </c>
       <c r="AC2">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD2">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE2">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="AF2">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AI2">
-        <v>22.3</v>
+        <v>28.4</v>
       </c>
       <c r="AJ2" t="s">
         <v>88</v>
@@ -993,18 +993,18 @@
         <v>125</v>
       </c>
       <c r="AM2">
-        <v>2025</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>31585</v>
+        <v>22500</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1013,13 +1013,13 @@
         <v>1984</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
@@ -1028,52 +1028,52 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M3">
-        <v>35.3</v>
+        <v>39</v>
       </c>
       <c r="N3">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="O3">
-        <v>17.9</v>
+        <v>20.1</v>
       </c>
       <c r="P3">
-        <v>0.54</v>
+        <v>0.503</v>
       </c>
       <c r="Q3">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="R3">
         <v>5.1</v>
       </c>
       <c r="S3">
-        <v>0.41</v>
+        <v>0.333</v>
       </c>
       <c r="T3">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="U3">
-        <v>12.8</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>0.592</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3">
-        <v>0.599</v>
+        <v>0.545</v>
       </c>
       <c r="X3">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="Y3">
-        <v>5.7</v>
+        <v>10.2</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.767</v>
       </c>
       <c r="AA3">
         <v>0.9</v>
@@ -1085,22 +1085,22 @@
         <v>7.3</v>
       </c>
       <c r="AD3">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AE3">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH3">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AI3">
-        <v>25.7</v>
+        <v>29.7</v>
       </c>
       <c r="AJ3" t="s">
         <v>89</v>
@@ -1112,18 +1112,18 @@
         <v>125</v>
       </c>
       <c r="AM3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>30873</v>
+        <v>31585</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1135,91 +1135,91 @@
         <v>79</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="N4">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="O4">
-        <v>22.2</v>
+        <v>17.9</v>
       </c>
       <c r="P4">
+        <v>0.54</v>
+      </c>
+      <c r="Q4">
+        <v>2.1</v>
+      </c>
+      <c r="R4">
+        <v>5.1</v>
+      </c>
+      <c r="S4">
+        <v>0.41</v>
+      </c>
+      <c r="T4">
+        <v>7.5</v>
+      </c>
+      <c r="U4">
+        <v>12.8</v>
+      </c>
+      <c r="V4">
+        <v>0.592</v>
+      </c>
+      <c r="W4">
+        <v>0.599</v>
+      </c>
+      <c r="X4">
+        <v>4.3</v>
+      </c>
+      <c r="Y4">
+        <v>5.7</v>
+      </c>
+      <c r="Z4">
+        <v>0.75</v>
+      </c>
+      <c r="AA4">
+        <v>0.9</v>
+      </c>
+      <c r="AB4">
+        <v>6.4</v>
+      </c>
+      <c r="AC4">
+        <v>7.3</v>
+      </c>
+      <c r="AD4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>1.3</v>
+      </c>
+      <c r="AF4">
         <v>0.5</v>
       </c>
-      <c r="Q4">
-        <v>2.2</v>
-      </c>
-      <c r="R4">
-        <v>6.9</v>
-      </c>
-      <c r="S4">
-        <v>0.321</v>
-      </c>
-      <c r="T4">
-        <v>8.9</v>
-      </c>
-      <c r="U4">
-        <v>15.3</v>
-      </c>
-      <c r="V4">
-        <v>0.58</v>
-      </c>
-      <c r="W4">
-        <v>0.549</v>
-      </c>
-      <c r="X4">
-        <v>4.6</v>
-      </c>
-      <c r="Y4">
-        <v>5.9</v>
-      </c>
-      <c r="Z4">
-        <v>0.768</v>
-      </c>
-      <c r="AA4">
-        <v>1.2</v>
-      </c>
-      <c r="AB4">
-        <v>7.1</v>
-      </c>
-      <c r="AC4">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AD4">
-        <v>6.8</v>
-      </c>
-      <c r="AE4">
-        <v>0.9</v>
-      </c>
-      <c r="AF4">
-        <v>0.6</v>
-      </c>
       <c r="AG4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AH4">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AI4">
-        <v>28.9</v>
+        <v>25.7</v>
       </c>
       <c r="AJ4" t="s">
         <v>90</v>
@@ -1231,18 +1231,18 @@
         <v>125</v>
       </c>
       <c r="AM4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>30150</v>
+        <v>20211</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1251,13 +1251,13 @@
         <v>1984</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
@@ -1266,79 +1266,79 @@
         <v>83</v>
       </c>
       <c r="K5">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>37.2</v>
+        <v>42.5</v>
       </c>
       <c r="N5">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="O5">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="P5">
-        <v>0.524</v>
+        <v>0.48</v>
       </c>
       <c r="Q5">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="S5">
-        <v>0.359</v>
+        <v>0.335</v>
       </c>
       <c r="T5">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="U5">
-        <v>13.8</v>
+        <v>18.3</v>
       </c>
       <c r="V5">
-        <v>0.62</v>
+        <v>0.518</v>
       </c>
       <c r="W5">
-        <v>0.59</v>
+        <v>0.515</v>
       </c>
       <c r="X5">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y5">
-        <v>6</v>
+        <v>10.3</v>
       </c>
       <c r="Z5">
-        <v>0.756</v>
+        <v>0.738</v>
       </c>
       <c r="AA5">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AB5">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="AC5">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE5">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF5">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AG5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AI5">
-        <v>30.3</v>
+        <v>31.4</v>
       </c>
       <c r="AJ5" t="s">
         <v>91</v>
@@ -1350,18 +1350,18 @@
         <v>125</v>
       </c>
       <c r="AM5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>29371</v>
+        <v>21320</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1370,13 +1370,13 @@
         <v>1984</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -1385,79 +1385,79 @@
         <v>83</v>
       </c>
       <c r="K6">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>33.4</v>
+        <v>40.4</v>
       </c>
       <c r="N6">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="O6">
-        <v>18.3</v>
+        <v>21.9</v>
       </c>
       <c r="P6">
-        <v>0.513</v>
+        <v>0.484</v>
       </c>
       <c r="Q6">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="R6">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="S6">
-        <v>0.365</v>
+        <v>0.315</v>
       </c>
       <c r="T6">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>17.1</v>
       </c>
       <c r="V6">
-        <v>0.591</v>
+        <v>0.531</v>
       </c>
       <c r="W6">
-        <v>0.576</v>
+        <v>0.518</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="Y6">
-        <v>5.7</v>
+        <v>10.3</v>
       </c>
       <c r="Z6">
-        <v>0.698</v>
+        <v>0.712</v>
       </c>
       <c r="AA6">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AB6">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AC6">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE6">
+        <v>1.8</v>
+      </c>
+      <c r="AF6">
         <v>1.1</v>
       </c>
-      <c r="AF6">
-        <v>0.6</v>
-      </c>
       <c r="AG6">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AH6">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AI6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="s">
         <v>92</v>
@@ -1469,18 +1469,18 @@
         <v>125</v>
       </c>
       <c r="AM6">
-        <v>2021</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>28697</v>
+        <v>30150</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1489,117 +1489,117 @@
         <v>1984</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>34.6</v>
+        <v>37.2</v>
       </c>
       <c r="N7">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="O7">
-        <v>19.4</v>
+        <v>21.8</v>
       </c>
       <c r="P7">
-        <v>0.493</v>
+        <v>0.524</v>
       </c>
       <c r="Q7">
+        <v>2.9</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>0.359</v>
+      </c>
+      <c r="T7">
+        <v>8.6</v>
+      </c>
+      <c r="U7">
+        <v>13.8</v>
+      </c>
+      <c r="V7">
+        <v>0.62</v>
+      </c>
+      <c r="W7">
+        <v>0.59</v>
+      </c>
+      <c r="X7">
+        <v>4.5</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>0.756</v>
+      </c>
+      <c r="AA7">
+        <v>1.1</v>
+      </c>
+      <c r="AB7">
+        <v>7.1</v>
+      </c>
+      <c r="AC7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7">
+        <v>6.2</v>
+      </c>
+      <c r="AE7">
+        <v>1.3</v>
+      </c>
+      <c r="AF7">
+        <v>1.1</v>
+      </c>
+      <c r="AG7">
+        <v>3.5</v>
+      </c>
+      <c r="AH7">
         <v>2.2</v>
       </c>
-      <c r="R7">
-        <v>6.3</v>
-      </c>
-      <c r="S7">
-        <v>0.348</v>
-      </c>
-      <c r="T7">
-        <v>7.4</v>
-      </c>
-      <c r="U7">
-        <v>13.1</v>
-      </c>
-      <c r="V7">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="W7">
-        <v>0.55</v>
-      </c>
-      <c r="X7">
-        <v>3.9</v>
-      </c>
-      <c r="Y7">
-        <v>5.7</v>
-      </c>
-      <c r="Z7">
-        <v>0.6929999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>6.9</v>
-      </c>
-      <c r="AC7">
-        <v>7.8</v>
-      </c>
-      <c r="AD7">
-        <v>10.2</v>
-      </c>
-      <c r="AE7">
-        <v>1.2</v>
-      </c>
-      <c r="AF7">
-        <v>0.5</v>
-      </c>
-      <c r="AG7">
-        <v>3.9</v>
-      </c>
-      <c r="AH7">
-        <v>1.8</v>
-      </c>
       <c r="AI7">
-        <v>25.3</v>
+        <v>30.3</v>
       </c>
       <c r="AJ7" t="s">
         <v>93</v>
       </c>
       <c r="AK7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL7" t="s">
         <v>125</v>
       </c>
       <c r="AM7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>28009</v>
+        <v>23116</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1611,79 +1611,79 @@
         <v>78</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M8">
-        <v>35.2</v>
+        <v>38.8</v>
       </c>
       <c r="N8">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="O8">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="P8">
         <v>0.51</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R8">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="S8">
-        <v>0.339</v>
+        <v>0.33</v>
       </c>
       <c r="T8">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="U8">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="V8">
-        <v>0.582</v>
+        <v>0.552</v>
       </c>
       <c r="W8">
-        <v>0.5600000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="X8">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="Y8">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z8">
-        <v>0.665</v>
+        <v>0.759</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC8">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF8">
         <v>0.6</v>
@@ -1692,10 +1692,10 @@
         <v>3.6</v>
       </c>
       <c r="AH8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI8">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="AJ8" t="s">
         <v>94</v>
@@ -1707,18 +1707,18 @@
         <v>125</v>
       </c>
       <c r="AM8">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>27322</v>
+        <v>25491</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -1727,94 +1727,94 @@
         <v>1984</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L9">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>36.9</v>
+        <v>36.1</v>
       </c>
       <c r="N9">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="P9">
-        <v>0.542</v>
+        <v>0.488</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="S9">
-        <v>0.367</v>
+        <v>0.354</v>
       </c>
       <c r="T9">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="U9">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="V9">
-        <v>0.603</v>
+        <v>0.536</v>
       </c>
       <c r="W9">
-        <v>0.59</v>
+        <v>0.535</v>
       </c>
       <c r="X9">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y9">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z9">
-        <v>0.731</v>
+        <v>0.71</v>
       </c>
       <c r="AA9">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="AC9">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="AD9">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE9">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AF9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AG9">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AH9">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>27.5</v>
+        <v>25.3</v>
       </c>
       <c r="AJ9" t="s">
         <v>95</v>
@@ -1826,18 +1826,18 @@
         <v>125</v>
       </c>
       <c r="AM9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>26682</v>
+        <v>28697</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
@@ -1846,13 +1846,13 @@
         <v>1984</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>82</v>
@@ -1861,102 +1861,102 @@
         <v>84</v>
       </c>
       <c r="K10">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L10">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>37.8</v>
+        <v>34.6</v>
       </c>
       <c r="N10">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="O10">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="P10">
-        <v>0.548</v>
+        <v>0.493</v>
       </c>
       <c r="Q10">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R10">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="S10">
-        <v>0.363</v>
+        <v>0.348</v>
       </c>
       <c r="T10">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="U10">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="V10">
-        <v>0.611</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="W10">
-        <v>0.594</v>
+        <v>0.55</v>
       </c>
       <c r="X10">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y10">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="Z10">
-        <v>0.674</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AA10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC10">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD10">
-        <v>8.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AE10">
         <v>1.2</v>
       </c>
       <c r="AF10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AG10">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AH10">
         <v>1.8</v>
       </c>
       <c r="AI10">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="AJ10" t="s">
         <v>96</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s">
         <v>125</v>
       </c>
       <c r="AM10">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>26107</v>
+        <v>32201</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -1968,10 +1968,10 @@
         <v>78</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>82</v>
@@ -1980,79 +1980,79 @@
         <v>84</v>
       </c>
       <c r="K11">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="L11">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="P11">
-        <v>0.52</v>
+        <v>0.497</v>
       </c>
       <c r="Q11">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="S11">
-        <v>0.309</v>
+        <v>0.362</v>
       </c>
       <c r="T11">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="U11">
-        <v>14.9</v>
+        <v>12.4</v>
       </c>
       <c r="V11">
-        <v>0.573</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="W11">
-        <v>0.551</v>
+        <v>0.554</v>
       </c>
       <c r="X11">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y11">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Z11">
-        <v>0.731</v>
+        <v>0.771</v>
       </c>
       <c r="AA11">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC11">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AD11">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="AE11">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF11">
         <v>0.6</v>
       </c>
       <c r="AG11">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AH11">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AI11">
-        <v>25.3</v>
+        <v>23.4</v>
       </c>
       <c r="AJ11" t="s">
         <v>97</v>
@@ -2064,18 +2064,18 @@
         <v>125</v>
       </c>
       <c r="AM11">
-        <v>2016</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>25491</v>
+        <v>20761</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -2087,76 +2087,76 @@
         <v>78</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>36.1</v>
+        <v>40.9</v>
       </c>
       <c r="N12">
+        <v>9.9</v>
+      </c>
+      <c r="O12">
+        <v>20.8</v>
+      </c>
+      <c r="P12">
+        <v>0.476</v>
+      </c>
+      <c r="Q12">
+        <v>1.3</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>0.319</v>
+      </c>
+      <c r="T12">
+        <v>8.6</v>
+      </c>
+      <c r="U12">
+        <v>16.8</v>
+      </c>
+      <c r="V12">
+        <v>0.513</v>
+      </c>
+      <c r="W12">
+        <v>0.507</v>
+      </c>
+      <c r="X12">
+        <v>6.3</v>
+      </c>
+      <c r="Y12">
         <v>9</v>
       </c>
-      <c r="O12">
-        <v>18.5</v>
-      </c>
-      <c r="P12">
-        <v>0.488</v>
-      </c>
-      <c r="Q12">
-        <v>1.7</v>
-      </c>
-      <c r="R12">
-        <v>4.9</v>
-      </c>
-      <c r="S12">
-        <v>0.354</v>
-      </c>
-      <c r="T12">
-        <v>7.3</v>
-      </c>
-      <c r="U12">
-        <v>13.6</v>
-      </c>
-      <c r="V12">
-        <v>0.536</v>
-      </c>
-      <c r="W12">
-        <v>0.535</v>
-      </c>
-      <c r="X12">
-        <v>5.4</v>
-      </c>
-      <c r="Y12">
-        <v>7.7</v>
-      </c>
       <c r="Z12">
-        <v>0.71</v>
+        <v>0.698</v>
       </c>
       <c r="AA12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB12">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC12">
+        <v>6.7</v>
+      </c>
+      <c r="AD12">
         <v>6</v>
-      </c>
-      <c r="AD12">
-        <v>7.4</v>
       </c>
       <c r="AE12">
         <v>1.6</v>
@@ -2165,13 +2165,13 @@
         <v>0.7</v>
       </c>
       <c r="AG12">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI12">
-        <v>25.3</v>
+        <v>27.3</v>
       </c>
       <c r="AJ12" t="s">
         <v>98</v>
@@ -2183,18 +2183,18 @@
         <v>125</v>
       </c>
       <c r="AM12">
-        <v>2015</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>24853</v>
+        <v>26107</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -2203,94 +2203,94 @@
         <v>1984</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <v>37.7</v>
+        <v>35.6</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O13">
-        <v>17.6</v>
+        <v>18.6</v>
       </c>
       <c r="P13">
-        <v>0.5669999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="Q13">
+        <v>1.1</v>
+      </c>
+      <c r="R13">
+        <v>3.7</v>
+      </c>
+      <c r="S13">
+        <v>0.309</v>
+      </c>
+      <c r="T13">
+        <v>8.6</v>
+      </c>
+      <c r="U13">
+        <v>14.9</v>
+      </c>
+      <c r="V13">
+        <v>0.573</v>
+      </c>
+      <c r="W13">
+        <v>0.551</v>
+      </c>
+      <c r="X13">
+        <v>4.7</v>
+      </c>
+      <c r="Y13">
+        <v>6.5</v>
+      </c>
+      <c r="Z13">
+        <v>0.731</v>
+      </c>
+      <c r="AA13">
         <v>1.5</v>
       </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>0.379</v>
-      </c>
-      <c r="T13">
-        <v>8.5</v>
-      </c>
-      <c r="U13">
-        <v>13.6</v>
-      </c>
-      <c r="V13">
-        <v>0.622</v>
-      </c>
-      <c r="W13">
-        <v>0.61</v>
-      </c>
-      <c r="X13">
-        <v>5.7</v>
-      </c>
-      <c r="Y13">
-        <v>7.6</v>
-      </c>
-      <c r="Z13">
-        <v>0.75</v>
-      </c>
-      <c r="AA13">
-        <v>1.1</v>
-      </c>
       <c r="AB13">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC13">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AD13">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AE13">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AF13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AG13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH13">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AI13">
-        <v>27.1</v>
+        <v>25.3</v>
       </c>
       <c r="AJ13" t="s">
         <v>99</v>
@@ -2302,18 +2302,18 @@
         <v>125</v>
       </c>
       <c r="AM13">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>24275</v>
+        <v>27322</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -2325,91 +2325,91 @@
         <v>79</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>37.9</v>
+        <v>36.9</v>
       </c>
       <c r="N14">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="O14">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="P14">
-        <v>0.5649999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="Q14">
+        <v>1.8</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>0.367</v>
+      </c>
+      <c r="T14">
+        <v>8.6</v>
+      </c>
+      <c r="U14">
+        <v>14.3</v>
+      </c>
+      <c r="V14">
+        <v>0.603</v>
+      </c>
+      <c r="W14">
+        <v>0.59</v>
+      </c>
+      <c r="X14">
+        <v>4.7</v>
+      </c>
+      <c r="Y14">
+        <v>6.5</v>
+      </c>
+      <c r="Z14">
+        <v>0.731</v>
+      </c>
+      <c r="AA14">
+        <v>1.2</v>
+      </c>
+      <c r="AB14">
+        <v>7.5</v>
+      </c>
+      <c r="AC14">
+        <v>8.6</v>
+      </c>
+      <c r="AD14">
+        <v>9.1</v>
+      </c>
+      <c r="AE14">
         <v>1.4</v>
-      </c>
-      <c r="R14">
-        <v>3.3</v>
-      </c>
-      <c r="S14">
-        <v>0.406</v>
-      </c>
-      <c r="T14">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U14">
-        <v>14.5</v>
-      </c>
-      <c r="V14">
-        <v>0.602</v>
-      </c>
-      <c r="W14">
-        <v>0.603</v>
-      </c>
-      <c r="X14">
-        <v>5.3</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>0.753</v>
-      </c>
-      <c r="AA14">
-        <v>1.3</v>
-      </c>
-      <c r="AB14">
-        <v>6.8</v>
-      </c>
-      <c r="AC14">
-        <v>8</v>
-      </c>
-      <c r="AD14">
-        <v>7.3</v>
-      </c>
-      <c r="AE14">
-        <v>1.7</v>
       </c>
       <c r="AF14">
         <v>0.9</v>
       </c>
       <c r="AG14">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AH14">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AI14">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="AJ14" t="s">
         <v>100</v>
@@ -2421,18 +2421,18 @@
         <v>125</v>
       </c>
       <c r="AM14">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>23706</v>
+        <v>26682</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
@@ -2444,91 +2444,91 @@
         <v>78</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="O15">
-        <v>18.9</v>
+        <v>18.2</v>
       </c>
       <c r="P15">
-        <v>0.531</v>
+        <v>0.548</v>
       </c>
       <c r="Q15">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="R15">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="S15">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="T15">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U15">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="V15">
-        <v>0.556</v>
+        <v>0.611</v>
       </c>
       <c r="W15">
-        <v>0.554</v>
+        <v>0.594</v>
       </c>
       <c r="X15">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="Y15">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z15">
-        <v>0.771</v>
+        <v>0.674</v>
       </c>
       <c r="AA15">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB15">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AC15">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="AD15">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE15">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AF15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AG15">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AH15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AI15">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="AJ15" t="s">
         <v>101</v>
@@ -2540,18 +2540,18 @@
         <v>125</v>
       </c>
       <c r="AM15">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>23116</v>
+        <v>24275</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -2560,13 +2560,13 @@
         <v>1984</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>82</v>
@@ -2575,79 +2575,79 @@
         <v>85</v>
       </c>
       <c r="K16">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="N16">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="O16">
-        <v>18.8</v>
+        <v>17.8</v>
       </c>
       <c r="P16">
-        <v>0.51</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q16">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="R16">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S16">
-        <v>0.33</v>
+        <v>0.406</v>
       </c>
       <c r="T16">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U16">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="V16">
-        <v>0.552</v>
+        <v>0.602</v>
       </c>
       <c r="W16">
-        <v>0.541</v>
+        <v>0.603</v>
       </c>
       <c r="X16">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="Z16">
-        <v>0.759</v>
+        <v>0.753</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AB16">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC16">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD16">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE16">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AF16">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AG16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AH16">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AI16">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="AJ16" t="s">
         <v>102</v>
@@ -2659,18 +2659,18 @@
         <v>125</v>
       </c>
       <c r="AM16">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>22500</v>
+        <v>23706</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -2682,91 +2682,91 @@
         <v>78</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
         <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="N17">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>20.1</v>
+        <v>18.9</v>
       </c>
       <c r="P17">
-        <v>0.503</v>
+        <v>0.531</v>
       </c>
       <c r="Q17">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="R17">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="S17">
-        <v>0.333</v>
+        <v>0.362</v>
       </c>
       <c r="T17">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="U17">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="V17">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="W17">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="X17">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y17">
-        <v>10.2</v>
+        <v>8.1</v>
       </c>
       <c r="Z17">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="AA17">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AB17">
         <v>6.4</v>
       </c>
       <c r="AC17">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD17">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE17">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG17">
         <v>3.4</v>
       </c>
       <c r="AH17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AI17">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="AJ17" t="s">
         <v>103</v>
@@ -2778,18 +2778,18 @@
         <v>125</v>
       </c>
       <c r="AM17">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18">
-        <v>21909</v>
+        <v>30873</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -2798,13 +2798,13 @@
         <v>1984</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>82</v>
@@ -2813,79 +2813,79 @@
         <v>84</v>
       </c>
       <c r="K18">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="L18">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>37.7</v>
+        <v>35.5</v>
       </c>
       <c r="N18">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="O18">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="P18">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
+        <v>2.2</v>
+      </c>
+      <c r="R18">
+        <v>6.9</v>
+      </c>
+      <c r="S18">
+        <v>0.321</v>
+      </c>
+      <c r="T18">
+        <v>8.9</v>
+      </c>
+      <c r="U18">
+        <v>15.3</v>
+      </c>
+      <c r="V18">
+        <v>0.58</v>
+      </c>
+      <c r="W18">
+        <v>0.549</v>
+      </c>
+      <c r="X18">
+        <v>4.6</v>
+      </c>
+      <c r="Y18">
+        <v>5.9</v>
+      </c>
+      <c r="Z18">
+        <v>0.768</v>
+      </c>
+      <c r="AA18">
+        <v>1.2</v>
+      </c>
+      <c r="AB18">
+        <v>7.1</v>
+      </c>
+      <c r="AC18">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD18">
+        <v>6.8</v>
+      </c>
+      <c r="AE18">
+        <v>0.9</v>
+      </c>
+      <c r="AF18">
+        <v>0.6</v>
+      </c>
+      <c r="AG18">
+        <v>3.2</v>
+      </c>
+      <c r="AH18">
         <v>1.6</v>
       </c>
-      <c r="R18">
-        <v>4.7</v>
-      </c>
-      <c r="S18">
-        <v>0.344</v>
-      </c>
-      <c r="T18">
-        <v>8.1</v>
-      </c>
-      <c r="U18">
-        <v>15.2</v>
-      </c>
-      <c r="V18">
-        <v>0.535</v>
-      </c>
-      <c r="W18">
-        <v>0.53</v>
-      </c>
-      <c r="X18">
-        <v>7.3</v>
-      </c>
-      <c r="Y18">
-        <v>9.4</v>
-      </c>
-      <c r="Z18">
-        <v>0.78</v>
-      </c>
-      <c r="AA18">
-        <v>1.3</v>
-      </c>
-      <c r="AB18">
-        <v>6.3</v>
-      </c>
-      <c r="AC18">
-        <v>7.6</v>
-      </c>
-      <c r="AD18">
-        <v>7.2</v>
-      </c>
-      <c r="AE18">
-        <v>1.7</v>
-      </c>
-      <c r="AF18">
-        <v>1.1</v>
-      </c>
-      <c r="AG18">
-        <v>3</v>
-      </c>
-      <c r="AH18">
-        <v>1.7</v>
-      </c>
       <c r="AI18">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="AJ18" t="s">
         <v>104</v>
@@ -2897,18 +2897,18 @@
         <v>125</v>
       </c>
       <c r="AM18">
-        <v>2009</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>21320</v>
+        <v>29371</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -2917,13 +2917,13 @@
         <v>1984</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>82</v>
@@ -2932,79 +2932,79 @@
         <v>84</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>40.4</v>
+        <v>33.4</v>
       </c>
       <c r="N19">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="O19">
-        <v>21.9</v>
+        <v>18.3</v>
       </c>
       <c r="P19">
-        <v>0.484</v>
+        <v>0.513</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="R19">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="S19">
-        <v>0.315</v>
+        <v>0.365</v>
       </c>
       <c r="T19">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="U19">
-        <v>17.1</v>
+        <v>12</v>
       </c>
       <c r="V19">
-        <v>0.531</v>
+        <v>0.591</v>
       </c>
       <c r="W19">
-        <v>0.518</v>
+        <v>0.576</v>
       </c>
       <c r="X19">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="Y19">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z19">
-        <v>0.712</v>
+        <v>0.698</v>
       </c>
       <c r="AA19">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AB19">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AC19">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD19">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE19">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AF19">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AG19">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AH19">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AI19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="s">
         <v>105</v>
@@ -3016,18 +3016,18 @@
         <v>125</v>
       </c>
       <c r="AM19">
-        <v>2008</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>20761</v>
+        <v>19652</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -3039,91 +3039,91 @@
         <v>78</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>40.9</v>
+        <v>42.4</v>
       </c>
       <c r="N20">
         <v>9.9</v>
       </c>
       <c r="O20">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="P20">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
       <c r="Q20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S20">
-        <v>0.319</v>
+        <v>0.351</v>
       </c>
       <c r="T20">
         <v>8.6</v>
       </c>
       <c r="U20">
-        <v>16.8</v>
+        <v>17.2</v>
       </c>
       <c r="V20">
-        <v>0.513</v>
+        <v>0.499</v>
       </c>
       <c r="W20">
-        <v>0.507</v>
+        <v>0.504</v>
       </c>
       <c r="X20">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z20">
-        <v>0.698</v>
+        <v>0.75</v>
       </c>
       <c r="AA20">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB20">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AC20">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD20">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AE20">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AF20">
         <v>0.7</v>
       </c>
       <c r="AG20">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AH20">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AI20">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="AJ20" t="s">
         <v>106</v>
@@ -3135,18 +3135,18 @@
         <v>125</v>
       </c>
       <c r="AM20">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>20211</v>
+        <v>24853</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -3155,94 +3155,94 @@
         <v>1984</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
         <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L21">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>42.5</v>
+        <v>37.7</v>
       </c>
       <c r="N21">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>23.1</v>
+        <v>17.6</v>
       </c>
       <c r="P21">
-        <v>0.48</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Q21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R21">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0.335</v>
+        <v>0.379</v>
       </c>
       <c r="T21">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U21">
-        <v>18.3</v>
+        <v>13.6</v>
       </c>
       <c r="V21">
-        <v>0.518</v>
+        <v>0.622</v>
       </c>
       <c r="W21">
-        <v>0.515</v>
+        <v>0.61</v>
       </c>
       <c r="X21">
+        <v>5.7</v>
+      </c>
+      <c r="Y21">
         <v>7.6</v>
       </c>
-      <c r="Y21">
-        <v>10.3</v>
-      </c>
       <c r="Z21">
-        <v>0.738</v>
+        <v>0.75</v>
       </c>
       <c r="AA21">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AB21">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD21">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE21">
         <v>1.6</v>
       </c>
       <c r="AF21">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AG21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AH21">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AI21">
-        <v>31.4</v>
+        <v>27.1</v>
       </c>
       <c r="AJ21" t="s">
         <v>107</v>
@@ -3254,18 +3254,18 @@
         <v>125</v>
       </c>
       <c r="AM21">
-        <v>2006</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>19652</v>
+        <v>28009</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -3277,10 +3277,10 @@
         <v>78</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
@@ -3289,79 +3289,79 @@
         <v>84</v>
       </c>
       <c r="K22">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L22">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>42.4</v>
+        <v>35.2</v>
       </c>
       <c r="N22">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="O22">
-        <v>21.1</v>
+        <v>19.9</v>
       </c>
       <c r="P22">
-        <v>0.472</v>
+        <v>0.51</v>
       </c>
       <c r="Q22">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="S22">
-        <v>0.351</v>
+        <v>0.339</v>
       </c>
       <c r="T22">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="U22">
-        <v>17.2</v>
+        <v>14</v>
       </c>
       <c r="V22">
-        <v>0.499</v>
+        <v>0.582</v>
       </c>
       <c r="W22">
-        <v>0.504</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>0.665</v>
       </c>
       <c r="AA22">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AC22">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD22">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE22">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF22">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG22">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AH22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AI22">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="AJ22" t="s">
         <v>108</v>
@@ -3373,7 +3373,7 @@
         <v>125</v>
       </c>
       <c r="AM22">
-        <v>2005</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -3384,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
@@ -3405,7 +3405,7 @@
         <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>79</v>
@@ -3497,13 +3497,13 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24">
-        <v>18568</v>
+        <v>13459</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
@@ -3512,13 +3512,13 @@
         <v>1963</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
@@ -3527,79 +3527,79 @@
         <v>86</v>
       </c>
       <c r="K24">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>39.3</v>
       </c>
       <c r="N24">
-        <v>8.300000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="O24">
-        <v>18.6</v>
+        <v>25.7</v>
       </c>
       <c r="P24">
-        <v>0.445</v>
+        <v>0.495</v>
       </c>
       <c r="Q24">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="S24">
-        <v>0.291</v>
+        <v>0.352</v>
       </c>
       <c r="T24">
-        <v>8.1</v>
+        <v>11.7</v>
       </c>
       <c r="U24">
-        <v>18</v>
+        <v>22.7</v>
       </c>
       <c r="V24">
-        <v>0.45</v>
+        <v>0.514</v>
       </c>
       <c r="W24">
-        <v>0.45</v>
+        <v>0.515</v>
       </c>
       <c r="X24">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y24">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="Z24">
-        <v>0.821</v>
+        <v>0.837</v>
       </c>
       <c r="AA24">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB24">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AC24">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD24">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="AE24">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AF24">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG24">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH24">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI24">
-        <v>20</v>
+        <v>32.6</v>
       </c>
       <c r="AJ24" t="s">
         <v>110</v>
@@ -3611,18 +3611,18 @@
         <v>125</v>
       </c>
       <c r="AM24">
-        <v>2003</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25">
-        <v>18076</v>
+        <v>15484</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
@@ -3631,13 +3631,13 @@
         <v>1963</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
@@ -3646,79 +3646,79 @@
         <v>86</v>
       </c>
       <c r="K25">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="M25">
-        <v>34.9</v>
+        <v>37.9</v>
       </c>
       <c r="N25">
-        <v>9.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="O25">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="P25">
-        <v>0.416</v>
+        <v>0.486</v>
       </c>
       <c r="Q25">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="R25">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="S25">
-        <v>0.189</v>
+        <v>0.374</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="U25">
-        <v>21.2</v>
+        <v>19.5</v>
       </c>
       <c r="V25">
-        <v>0.426</v>
+        <v>0.507</v>
       </c>
       <c r="W25">
-        <v>0.42</v>
+        <v>0.516</v>
       </c>
       <c r="X25">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="Y25">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="Z25">
-        <v>0.79</v>
+        <v>0.833</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AB25">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC25">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD25">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AE25">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AF25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG25">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AH25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI25">
-        <v>22.9</v>
+        <v>29.6</v>
       </c>
       <c r="AJ25" t="s">
         <v>111</v>
@@ -3730,18 +3730,18 @@
         <v>125</v>
       </c>
       <c r="AM25">
-        <v>2002</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26">
-        <v>16041</v>
+        <v>12543</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
@@ -3753,16 +3753,16 @@
         <v>81</v>
       </c>
       <c r="G26">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
         <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26">
         <v>82</v>
@@ -3771,73 +3771,73 @@
         <v>82</v>
       </c>
       <c r="M26">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="N26">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="O26">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="P26">
-        <v>0.465</v>
+        <v>0.539</v>
       </c>
       <c r="Q26">
         <v>0.4</v>
       </c>
       <c r="R26">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="S26">
-        <v>0.238</v>
+        <v>0.312</v>
       </c>
       <c r="T26">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="U26">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V26">
-        <v>0.482</v>
+        <v>0.551</v>
       </c>
       <c r="W26">
-        <v>0.473</v>
+        <v>0.547</v>
       </c>
       <c r="X26">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y26">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.784</v>
+        <v>0.851</v>
       </c>
       <c r="AA26">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB26">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC26">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD26">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE26">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AF26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH26">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AI26">
-        <v>28.7</v>
+        <v>31.5</v>
       </c>
       <c r="AJ26" t="s">
         <v>112</v>
@@ -3849,18 +3849,18 @@
         <v>125</v>
       </c>
       <c r="AM26">
-        <v>1998</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27">
-        <v>15484</v>
+        <v>14913</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -3872,16 +3872,16 @@
         <v>81</v>
       </c>
       <c r="G27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
         <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27">
         <v>82</v>
@@ -3890,73 +3890,73 @@
         <v>82</v>
       </c>
       <c r="M27">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="N27">
         <v>11.2</v>
       </c>
       <c r="O27">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="P27">
-        <v>0.486</v>
+        <v>0.495</v>
       </c>
       <c r="Q27">
         <v>1.4</v>
       </c>
       <c r="R27">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="S27">
-        <v>0.374</v>
+        <v>0.427</v>
       </c>
       <c r="T27">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U27">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V27">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="W27">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="X27">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="Y27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z27">
-        <v>0.833</v>
+        <v>0.834</v>
       </c>
       <c r="AA27">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB27">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC27">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD27">
         <v>4.3</v>
       </c>
       <c r="AE27">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AF27">
         <v>0.5</v>
       </c>
       <c r="AG27">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH27">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI27">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="AJ27" t="s">
         <v>113</v>
@@ -3968,18 +3968,18 @@
         <v>125</v>
       </c>
       <c r="AM27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28">
-        <v>14913</v>
+        <v>18076</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -3988,13 +3988,13 @@
         <v>1963</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
         <v>82</v>
@@ -4003,79 +4003,79 @@
         <v>87</v>
       </c>
       <c r="K28">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L28">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="M28">
-        <v>37.7</v>
+        <v>34.9</v>
       </c>
       <c r="N28">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O28">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="P28">
-        <v>0.495</v>
+        <v>0.416</v>
       </c>
       <c r="Q28">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="R28">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="S28">
-        <v>0.427</v>
+        <v>0.189</v>
       </c>
       <c r="T28">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U28">
-        <v>19.4</v>
+        <v>21.2</v>
       </c>
       <c r="V28">
-        <v>0.506</v>
+        <v>0.426</v>
       </c>
       <c r="W28">
-        <v>0.525</v>
+        <v>0.42</v>
       </c>
       <c r="X28">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="Y28">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="Z28">
-        <v>0.834</v>
+        <v>0.79</v>
       </c>
       <c r="AA28">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
         <v>4.8</v>
       </c>
       <c r="AC28">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD28">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE28">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AF28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AG28">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AH28">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI28">
-        <v>30.4</v>
+        <v>22.9</v>
       </c>
       <c r="AJ28" t="s">
         <v>114</v>
@@ -4087,18 +4087,18 @@
         <v>125</v>
       </c>
       <c r="AM28">
-        <v>1996</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29">
-        <v>14392</v>
+        <v>10425</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="C29">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -4110,91 +4110,91 @@
         <v>81</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>39.3</v>
+        <v>25.1</v>
       </c>
       <c r="N29">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O29">
-        <v>23.8</v>
+        <v>18.2</v>
       </c>
       <c r="P29">
-        <v>0.411</v>
+        <v>0.457</v>
       </c>
       <c r="Q29">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0.5</v>
+        <v>0.167</v>
       </c>
       <c r="T29">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U29">
-        <v>21.9</v>
+        <v>17.2</v>
       </c>
       <c r="V29">
-        <v>0.403</v>
+        <v>0.474</v>
       </c>
       <c r="W29">
-        <v>0.431</v>
+        <v>0.462</v>
       </c>
       <c r="X29">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y29">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="Z29">
-        <v>0.801</v>
+        <v>0.84</v>
       </c>
       <c r="AA29">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB29">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC29">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD29">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="AE29">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AF29">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AG29">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH29">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AI29">
-        <v>26.9</v>
+        <v>22.7</v>
       </c>
       <c r="AJ29" t="s">
         <v>115</v>
@@ -4206,18 +4206,18 @@
         <v>125</v>
       </c>
       <c r="AM29">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30">
-        <v>13459</v>
+        <v>10813</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -4229,91 +4229,91 @@
         <v>81</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L30">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M30">
-        <v>39.3</v>
+        <v>40</v>
       </c>
       <c r="N30">
-        <v>12.7</v>
+        <v>13.4</v>
       </c>
       <c r="O30">
-        <v>25.7</v>
+        <v>27.8</v>
       </c>
       <c r="P30">
-        <v>0.495</v>
+        <v>0.482</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R30">
+        <v>0.8</v>
+      </c>
+      <c r="S30">
+        <v>0.182</v>
+      </c>
+      <c r="T30">
+        <v>13.2</v>
+      </c>
+      <c r="U30">
+        <v>27</v>
+      </c>
+      <c r="V30">
+        <v>0.491</v>
+      </c>
+      <c r="W30">
+        <v>0.484</v>
+      </c>
+      <c r="X30">
+        <v>10.2</v>
+      </c>
+      <c r="Y30">
+        <v>11.9</v>
+      </c>
+      <c r="Z30">
+        <v>0.857</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>3.2</v>
+      </c>
+      <c r="AC30">
+        <v>5.2</v>
+      </c>
+      <c r="AD30">
+        <v>4.6</v>
+      </c>
+      <c r="AE30">
         <v>2.9</v>
       </c>
-      <c r="S30">
-        <v>0.352</v>
-      </c>
-      <c r="T30">
-        <v>11.7</v>
-      </c>
-      <c r="U30">
-        <v>22.7</v>
-      </c>
-      <c r="V30">
-        <v>0.514</v>
-      </c>
-      <c r="W30">
-        <v>0.515</v>
-      </c>
-      <c r="X30">
-        <v>6.1</v>
-      </c>
-      <c r="Y30">
-        <v>7.3</v>
-      </c>
-      <c r="Z30">
-        <v>0.837</v>
-      </c>
-      <c r="AA30">
-        <v>1.7</v>
-      </c>
-      <c r="AB30">
-        <v>5</v>
-      </c>
-      <c r="AC30">
-        <v>6.7</v>
-      </c>
-      <c r="AD30">
-        <v>5.5</v>
-      </c>
-      <c r="AE30">
-        <v>2.8</v>
-      </c>
       <c r="AF30">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AG30">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AH30">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AI30">
-        <v>32.6</v>
+        <v>37.1</v>
       </c>
       <c r="AJ30" t="s">
         <v>116</v>
@@ -4325,18 +4325,18 @@
         <v>125</v>
       </c>
       <c r="AM30">
-        <v>1993</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31">
-        <v>12990</v>
+        <v>18568</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="C31">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
@@ -4345,13 +4345,13 @@
         <v>1963</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G31">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
         <v>82</v>
@@ -4360,79 +4360,79 @@
         <v>87</v>
       </c>
       <c r="K31">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L31">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M31">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="N31">
-        <v>11.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O31">
-        <v>22.7</v>
+        <v>18.6</v>
       </c>
       <c r="P31">
-        <v>0.519</v>
+        <v>0.445</v>
       </c>
       <c r="Q31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R31">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="S31">
-        <v>0.27</v>
+        <v>0.291</v>
       </c>
       <c r="T31">
-        <v>11.5</v>
+        <v>8.1</v>
       </c>
       <c r="U31">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="V31">
-        <v>0.533</v>
+        <v>0.45</v>
       </c>
       <c r="W31">
-        <v>0.526</v>
+        <v>0.45</v>
       </c>
       <c r="X31">
+        <v>3.2</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>0.821</v>
+      </c>
+      <c r="AA31">
+        <v>0.9</v>
+      </c>
+      <c r="AB31">
+        <v>5.2</v>
+      </c>
+      <c r="AC31">
         <v>6.1</v>
       </c>
-      <c r="Y31">
-        <v>7.4</v>
-      </c>
-      <c r="Z31">
-        <v>0.832</v>
-      </c>
-      <c r="AA31">
-        <v>1.1</v>
-      </c>
-      <c r="AB31">
-        <v>5.3</v>
-      </c>
-      <c r="AC31">
-        <v>6.4</v>
-      </c>
       <c r="AD31">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="AE31">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AF31">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AG31">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH31">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AI31">
-        <v>30.1</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s">
         <v>117</v>
@@ -4444,18 +4444,18 @@
         <v>125</v>
       </c>
       <c r="AM31">
-        <v>1992</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32">
-        <v>12543</v>
+        <v>12990</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
@@ -4467,91 +4467,91 @@
         <v>81</v>
       </c>
       <c r="G32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I32" t="s">
         <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L32">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>38.8</v>
       </c>
       <c r="N32">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="O32">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="P32">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="Q32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R32">
+        <v>1.3</v>
+      </c>
+      <c r="S32">
+        <v>0.27</v>
+      </c>
+      <c r="T32">
+        <v>11.5</v>
+      </c>
+      <c r="U32">
+        <v>21.5</v>
+      </c>
+      <c r="V32">
+        <v>0.533</v>
+      </c>
+      <c r="W32">
+        <v>0.526</v>
+      </c>
+      <c r="X32">
+        <v>6.1</v>
+      </c>
+      <c r="Y32">
+        <v>7.4</v>
+      </c>
+      <c r="Z32">
+        <v>0.832</v>
+      </c>
+      <c r="AA32">
         <v>1.1</v>
       </c>
-      <c r="S32">
-        <v>0.312</v>
-      </c>
-      <c r="T32">
-        <v>11.7</v>
-      </c>
-      <c r="U32">
-        <v>21.3</v>
-      </c>
-      <c r="V32">
-        <v>0.551</v>
-      </c>
-      <c r="W32">
-        <v>0.547</v>
-      </c>
-      <c r="X32">
-        <v>7</v>
-      </c>
-      <c r="Y32">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z32">
-        <v>0.851</v>
-      </c>
-      <c r="AA32">
-        <v>1.4</v>
-      </c>
       <c r="AB32">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC32">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AD32">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE32">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AG32">
         <v>2.5</v>
       </c>
       <c r="AH32">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI32">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="AJ32" t="s">
         <v>118</v>
@@ -4563,18 +4563,18 @@
         <v>125</v>
       </c>
       <c r="AM32">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33">
-        <v>12079</v>
+        <v>11208</v>
       </c>
       <c r="B33" t="s">
         <v>70</v>
       </c>
       <c r="C33">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D33" t="s">
         <v>77</v>
@@ -4586,16 +4586,16 @@
         <v>81</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
         <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33">
         <v>82</v>
@@ -4604,73 +4604,73 @@
         <v>82</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="N33">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="O33">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="P33">
-        <v>0.526</v>
+        <v>0.535</v>
       </c>
       <c r="Q33">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="S33">
-        <v>0.376</v>
+        <v>0.132</v>
       </c>
       <c r="T33">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="U33">
-        <v>21</v>
+        <v>23.7</v>
       </c>
       <c r="V33">
-        <v>0.548</v>
+        <v>0.546</v>
       </c>
       <c r="W33">
-        <v>0.55</v>
+        <v>0.537</v>
       </c>
       <c r="X33">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z33">
-        <v>0.848</v>
+        <v>0.841</v>
       </c>
       <c r="AA33">
         <v>1.7</v>
       </c>
       <c r="AB33">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="AC33">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD33">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AE33">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AF33">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AG33">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AH33">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AI33">
-        <v>33.6</v>
+        <v>35</v>
       </c>
       <c r="AJ33" t="s">
         <v>119</v>
@@ -4682,18 +4682,18 @@
         <v>125</v>
       </c>
       <c r="AM33">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34">
-        <v>11647</v>
+        <v>14392</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -4705,91 +4705,91 @@
         <v>81</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="L34">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>40.2</v>
+        <v>39.3</v>
       </c>
       <c r="N34">
-        <v>11.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O34">
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
       <c r="P34">
-        <v>0.538</v>
+        <v>0.411</v>
       </c>
       <c r="Q34">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="R34">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>0.276</v>
+        <v>0.5</v>
       </c>
       <c r="T34">
-        <v>11.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U34">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="V34">
-        <v>0.553</v>
+        <v>0.403</v>
       </c>
       <c r="W34">
-        <v>0.546</v>
+        <v>0.431</v>
       </c>
       <c r="X34">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="Y34">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z34">
-        <v>0.85</v>
+        <v>0.801</v>
       </c>
       <c r="AA34">
+        <v>1.5</v>
+      </c>
+      <c r="AB34">
+        <v>5.4</v>
+      </c>
+      <c r="AC34">
+        <v>6.9</v>
+      </c>
+      <c r="AD34">
+        <v>5.3</v>
+      </c>
+      <c r="AE34">
         <v>1.8</v>
-      </c>
-      <c r="AB34">
-        <v>6.2</v>
-      </c>
-      <c r="AC34">
-        <v>8</v>
-      </c>
-      <c r="AD34">
-        <v>8</v>
-      </c>
-      <c r="AE34">
-        <v>2.9</v>
       </c>
       <c r="AF34">
         <v>0.8</v>
       </c>
       <c r="AG34">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AI34">
-        <v>32.5</v>
+        <v>26.9</v>
       </c>
       <c r="AJ34" t="s">
         <v>120</v>
@@ -4801,18 +4801,18 @@
         <v>125</v>
       </c>
       <c r="AM34">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35">
-        <v>11208</v>
+        <v>11647</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="C35">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
@@ -4824,91 +4824,91 @@
         <v>81</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
         <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L35">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M35">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="N35">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="O35">
-        <v>24.4</v>
+        <v>22.2</v>
       </c>
       <c r="P35">
-        <v>0.535</v>
+        <v>0.538</v>
       </c>
       <c r="Q35">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R35">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="S35">
-        <v>0.132</v>
+        <v>0.276</v>
       </c>
       <c r="T35">
-        <v>13</v>
+        <v>11.6</v>
       </c>
       <c r="U35">
-        <v>23.7</v>
+        <v>21</v>
       </c>
       <c r="V35">
+        <v>0.553</v>
+      </c>
+      <c r="W35">
         <v>0.546</v>
       </c>
-      <c r="W35">
-        <v>0.537</v>
-      </c>
       <c r="X35">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y35">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.841</v>
+        <v>0.85</v>
       </c>
       <c r="AA35">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB35">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC35">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AD35">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AE35">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AF35">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG35">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AH35">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AI35">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="AJ35" t="s">
         <v>121</v>
@@ -4920,18 +4920,18 @@
         <v>125</v>
       </c>
       <c r="AM35">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36">
-        <v>10813</v>
+        <v>10057</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -4943,16 +4943,16 @@
         <v>81</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36">
         <v>82</v>
@@ -4961,73 +4961,73 @@
         <v>82</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>38.3</v>
       </c>
       <c r="N36">
-        <v>13.4</v>
+        <v>10.2</v>
       </c>
       <c r="O36">
-        <v>27.8</v>
+        <v>19.8</v>
       </c>
       <c r="P36">
-        <v>0.482</v>
+        <v>0.515</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
       </c>
       <c r="R36">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="S36">
-        <v>0.182</v>
+        <v>0.173</v>
       </c>
       <c r="T36">
-        <v>13.2</v>
+        <v>10.1</v>
       </c>
       <c r="U36">
-        <v>27</v>
+        <v>19.2</v>
       </c>
       <c r="V36">
-        <v>0.491</v>
+        <v>0.526</v>
       </c>
       <c r="W36">
-        <v>0.484</v>
+        <v>0.518</v>
       </c>
       <c r="X36">
-        <v>10.2</v>
+        <v>7.7</v>
       </c>
       <c r="Y36">
-        <v>11.9</v>
+        <v>9.1</v>
       </c>
       <c r="Z36">
-        <v>0.857</v>
+        <v>0.845</v>
       </c>
       <c r="AA36">
         <v>2</v>
       </c>
       <c r="AB36">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AC36">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD36">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE36">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AF36">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG36">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AH36">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AI36">
-        <v>37.1</v>
+        <v>28.2</v>
       </c>
       <c r="AJ36" t="s">
         <v>122</v>
@@ -5039,18 +5039,18 @@
         <v>125</v>
       </c>
       <c r="AM36">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37">
-        <v>10425</v>
+        <v>12079</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -5062,91 +5062,91 @@
         <v>81</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M37">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="N37">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="O37">
-        <v>18.2</v>
+        <v>24</v>
       </c>
       <c r="P37">
-        <v>0.457</v>
+        <v>0.526</v>
       </c>
       <c r="Q37">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>0.167</v>
+        <v>0.376</v>
       </c>
       <c r="T37">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="U37">
-        <v>17.2</v>
+        <v>21</v>
       </c>
       <c r="V37">
-        <v>0.474</v>
+        <v>0.548</v>
       </c>
       <c r="W37">
-        <v>0.462</v>
+        <v>0.55</v>
       </c>
       <c r="X37">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y37">
+        <v>8.5</v>
+      </c>
+      <c r="Z37">
+        <v>0.848</v>
+      </c>
+      <c r="AA37">
+        <v>1.7</v>
+      </c>
+      <c r="AB37">
+        <v>5.1</v>
+      </c>
+      <c r="AC37">
         <v>6.9</v>
       </c>
-      <c r="Z37">
-        <v>0.84</v>
-      </c>
-      <c r="AA37">
-        <v>1.3</v>
-      </c>
-      <c r="AB37">
-        <v>2.3</v>
-      </c>
-      <c r="AC37">
-        <v>3.6</v>
-      </c>
       <c r="AD37">
+        <v>6.3</v>
+      </c>
+      <c r="AE37">
+        <v>2.8</v>
+      </c>
+      <c r="AF37">
+        <v>0.7</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
         <v>2.9</v>
       </c>
-      <c r="AE37">
-        <v>2.1</v>
-      </c>
-      <c r="AF37">
-        <v>1.2</v>
-      </c>
-      <c r="AG37">
-        <v>2.5</v>
-      </c>
-      <c r="AH37">
-        <v>2.6</v>
-      </c>
       <c r="AI37">
-        <v>22.7</v>
+        <v>33.6</v>
       </c>
       <c r="AJ37" t="s">
         <v>123</v>
@@ -5158,18 +5158,18 @@
         <v>125</v>
       </c>
       <c r="AM37">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38">
-        <v>10057</v>
+        <v>16041</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
@@ -5181,16 +5181,16 @@
         <v>81</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
         <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K38">
         <v>82</v>
@@ -5199,73 +5199,73 @@
         <v>82</v>
       </c>
       <c r="M38">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="N38">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="O38">
-        <v>19.8</v>
+        <v>23.1</v>
       </c>
       <c r="P38">
-        <v>0.515</v>
+        <v>0.465</v>
       </c>
       <c r="Q38">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R38">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="S38">
-        <v>0.173</v>
+        <v>0.238</v>
       </c>
       <c r="T38">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="U38">
-        <v>19.2</v>
+        <v>21.5</v>
       </c>
       <c r="V38">
-        <v>0.526</v>
+        <v>0.482</v>
       </c>
       <c r="W38">
-        <v>0.518</v>
+        <v>0.473</v>
       </c>
       <c r="X38">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y38">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z38">
-        <v>0.845</v>
+        <v>0.784</v>
       </c>
       <c r="AA38">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AB38">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AC38">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD38">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="AE38">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AF38">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG38">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AH38">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="AI38">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="AJ38" t="s">
         <v>124</v>
@@ -5277,7 +5277,7 @@
         <v>125</v>
       </c>
       <c r="AM38">
-        <v>1985</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -133,262 +133,262 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
-    <t>2024</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2007</t>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2004</t>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1985</t>
   </si>
   <si>
     <t>1993</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>1986</t>
   </si>
   <si>
     <t>1987</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
     <t>Michael Jordan</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>NBA</t>
   </si>
   <si>
     <t>CLE</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>MIA</t>
+    <t>WAS</t>
   </si>
   <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>WAS</t>
+    <t>2003-04</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2014-15</t>
   </si>
   <si>
     <t>2008-09</t>
   </si>
   <si>
+    <t>2016-17</t>
+  </si>
+  <si>
     <t>2009-10</t>
   </si>
   <si>
-    <t>2023-24</t>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2004-05</t>
   </si>
   <si>
     <t>2005-06</t>
   </si>
   <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2021-22</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2006-07</t>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2011-12</t>
   </si>
   <si>
     <t>2015-16</t>
   </si>
   <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2003-04</t>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>1995-06</t>
+  </si>
+  <si>
+    <t>1994-95</t>
+  </si>
+  <si>
+    <t>1997-98</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
+    <t>1984-85</t>
   </si>
   <si>
     <t>1992-93</t>
   </si>
   <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
     <t>1985-86</t>
   </si>
   <si>
     <t>1986-87</t>
   </si>
   <si>
+    <t>1991-92</t>
+  </si>
+  <si>
     <t>2002-03</t>
-  </si>
-  <si>
-    <t>1991-92</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1994-95</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1984-85</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1997-98</t>
   </si>
   <si>
     <t>No</t>
@@ -879,13 +879,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>21909</v>
+        <v>19051</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -897,10 +897,10 @@
         <v>78</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>82</v>
@@ -909,79 +909,79 @@
         <v>83</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M2">
-        <v>37.7</v>
+        <v>39.5</v>
       </c>
       <c r="N2">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="O2">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="P2">
-        <v>0.489</v>
+        <v>0.417</v>
       </c>
       <c r="Q2">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="R2">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="S2">
-        <v>0.344</v>
+        <v>0.29</v>
       </c>
       <c r="T2">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="U2">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="V2">
-        <v>0.535</v>
+        <v>0.438</v>
       </c>
       <c r="W2">
-        <v>0.53</v>
+        <v>0.438</v>
       </c>
       <c r="X2">
-        <v>7.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y2">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z2">
-        <v>0.78</v>
+        <v>0.754</v>
       </c>
       <c r="AA2">
         <v>1.3</v>
       </c>
       <c r="AB2">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="AC2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD2">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AF2">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AH2">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AI2">
-        <v>28.4</v>
+        <v>20.9</v>
       </c>
       <c r="AJ2" t="s">
         <v>88</v>
@@ -993,18 +993,18 @@
         <v>125</v>
       </c>
       <c r="AM2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>22500</v>
+        <v>24853</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1013,94 +1013,94 @@
         <v>1984</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3">
-        <v>39</v>
+        <v>37.7</v>
       </c>
       <c r="N3">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>20.1</v>
+        <v>17.6</v>
       </c>
       <c r="P3">
-        <v>0.503</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Q3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R3">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>0.333</v>
+        <v>0.379</v>
       </c>
       <c r="T3">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="U3">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="V3">
-        <v>0.5600000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="W3">
-        <v>0.545</v>
+        <v>0.61</v>
       </c>
       <c r="X3">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y3">
-        <v>10.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z3">
-        <v>0.767</v>
+        <v>0.75</v>
       </c>
       <c r="AA3">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AB3">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC3">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AD3">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE3">
         <v>1.6</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AG3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AH3">
         <v>1.6</v>
       </c>
       <c r="AI3">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="AJ3" t="s">
         <v>89</v>
@@ -1112,7 +1112,7 @@
         <v>125</v>
       </c>
       <c r="AM3">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1144,7 +1144,7 @@
         <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>71</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>20211</v>
+        <v>25491</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1251,13 +1251,13 @@
         <v>1984</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
@@ -1266,79 +1266,79 @@
         <v>83</v>
       </c>
       <c r="K5">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>42.5</v>
+        <v>36.1</v>
       </c>
       <c r="N5">
-        <v>11.1</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>23.1</v>
+        <v>18.5</v>
       </c>
       <c r="P5">
-        <v>0.48</v>
+        <v>0.488</v>
       </c>
       <c r="Q5">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R5">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="S5">
-        <v>0.335</v>
+        <v>0.354</v>
       </c>
       <c r="T5">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="U5">
-        <v>18.3</v>
+        <v>13.6</v>
       </c>
       <c r="V5">
-        <v>0.518</v>
+        <v>0.536</v>
       </c>
       <c r="W5">
-        <v>0.515</v>
+        <v>0.535</v>
       </c>
       <c r="X5">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y5">
-        <v>10.3</v>
+        <v>7.7</v>
       </c>
       <c r="Z5">
-        <v>0.738</v>
+        <v>0.71</v>
       </c>
       <c r="AA5">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AB5">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD5">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE5">
         <v>1.6</v>
       </c>
       <c r="AF5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AG5">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AH5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI5">
-        <v>31.4</v>
+        <v>25.3</v>
       </c>
       <c r="AJ5" t="s">
         <v>91</v>
@@ -1350,18 +1350,18 @@
         <v>125</v>
       </c>
       <c r="AM5">
-        <v>2006</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>21320</v>
+        <v>21909</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1370,13 +1370,13 @@
         <v>1984</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -1385,79 +1385,79 @@
         <v>83</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L6">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M6">
-        <v>40.4</v>
+        <v>37.7</v>
       </c>
       <c r="N6">
-        <v>10.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O6">
-        <v>21.9</v>
+        <v>19.9</v>
       </c>
       <c r="P6">
-        <v>0.484</v>
+        <v>0.489</v>
       </c>
       <c r="Q6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R6">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="S6">
-        <v>0.315</v>
+        <v>0.344</v>
       </c>
       <c r="T6">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="U6">
-        <v>17.1</v>
+        <v>15.2</v>
       </c>
       <c r="V6">
-        <v>0.531</v>
+        <v>0.535</v>
       </c>
       <c r="W6">
-        <v>0.518</v>
+        <v>0.53</v>
       </c>
       <c r="X6">
         <v>7.3</v>
       </c>
       <c r="Y6">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="Z6">
-        <v>0.712</v>
+        <v>0.78</v>
       </c>
       <c r="AA6">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB6">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AC6">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD6">
         <v>7.2</v>
       </c>
       <c r="AE6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AF6">
         <v>1.1</v>
       </c>
       <c r="AG6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AH6">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AI6">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="AJ6" t="s">
         <v>92</v>
@@ -1469,18 +1469,18 @@
         <v>125</v>
       </c>
       <c r="AM6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>30150</v>
+        <v>26682</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1489,94 +1489,94 @@
         <v>1984</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="N7">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="O7">
-        <v>21.8</v>
+        <v>18.2</v>
       </c>
       <c r="P7">
-        <v>0.524</v>
+        <v>0.548</v>
       </c>
       <c r="Q7">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="S7">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
       <c r="T7">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U7">
+        <v>13.5</v>
+      </c>
+      <c r="V7">
+        <v>0.611</v>
+      </c>
+      <c r="W7">
+        <v>0.594</v>
+      </c>
+      <c r="X7">
+        <v>4.8</v>
+      </c>
+      <c r="Y7">
+        <v>7.2</v>
+      </c>
+      <c r="Z7">
+        <v>0.674</v>
+      </c>
+      <c r="AA7">
+        <v>1.3</v>
+      </c>
+      <c r="AB7">
+        <v>7.3</v>
+      </c>
+      <c r="AC7">
         <v>8.6</v>
       </c>
-      <c r="U7">
-        <v>13.8</v>
-      </c>
-      <c r="V7">
-        <v>0.62</v>
-      </c>
-      <c r="W7">
-        <v>0.59</v>
-      </c>
-      <c r="X7">
-        <v>4.5</v>
-      </c>
-      <c r="Y7">
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <v>0.756</v>
-      </c>
-      <c r="AA7">
-        <v>1.1</v>
-      </c>
-      <c r="AB7">
-        <v>7.1</v>
-      </c>
-      <c r="AC7">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD7">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE7">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AG7">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AH7">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AI7">
-        <v>30.3</v>
+        <v>26.4</v>
       </c>
       <c r="AJ7" t="s">
         <v>93</v>
@@ -1588,18 +1588,18 @@
         <v>125</v>
       </c>
       <c r="AM7">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>23116</v>
+        <v>22500</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1608,94 +1608,94 @@
         <v>1984</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="N8">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="O8">
-        <v>18.8</v>
+        <v>20.1</v>
       </c>
       <c r="P8">
-        <v>0.51</v>
+        <v>0.503</v>
       </c>
       <c r="Q8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="R8">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="S8">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="T8">
         <v>8.4</v>
       </c>
       <c r="U8">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="V8">
-        <v>0.552</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W8">
-        <v>0.541</v>
+        <v>0.545</v>
       </c>
       <c r="X8">
+        <v>7.8</v>
+      </c>
+      <c r="Y8">
+        <v>10.2</v>
+      </c>
+      <c r="Z8">
+        <v>0.767</v>
+      </c>
+      <c r="AA8">
+        <v>0.9</v>
+      </c>
+      <c r="AB8">
         <v>6.4</v>
       </c>
-      <c r="Y8">
-        <v>8.4</v>
-      </c>
-      <c r="Z8">
-        <v>0.759</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>6.5</v>
-      </c>
       <c r="AC8">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AE8">
         <v>1.6</v>
       </c>
       <c r="AF8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AH8">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AI8">
-        <v>26.7</v>
+        <v>29.7</v>
       </c>
       <c r="AJ8" t="s">
         <v>94</v>
@@ -1707,18 +1707,18 @@
         <v>125</v>
       </c>
       <c r="AM8">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>25491</v>
+        <v>28697</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -1727,91 +1727,91 @@
         <v>1984</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>36.1</v>
+        <v>34.6</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="O9">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="P9">
-        <v>0.488</v>
+        <v>0.493</v>
       </c>
       <c r="Q9">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R9">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="S9">
-        <v>0.354</v>
+        <v>0.348</v>
       </c>
       <c r="T9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U9">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="V9">
-        <v>0.536</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="W9">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="X9">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="Y9">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="Z9">
-        <v>0.71</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC9">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AD9">
-        <v>7.4</v>
+        <v>10.2</v>
       </c>
       <c r="AE9">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AF9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AG9">
         <v>3.9</v>
       </c>
       <c r="AH9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI9">
         <v>25.3</v>
@@ -1820,24 +1820,24 @@
         <v>95</v>
       </c>
       <c r="AK9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s">
         <v>125</v>
       </c>
       <c r="AM9">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>28697</v>
+        <v>29371</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
@@ -1846,117 +1846,117 @@
         <v>1984</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>34.6</v>
+        <v>33.4</v>
       </c>
       <c r="N10">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O10">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="P10">
-        <v>0.493</v>
+        <v>0.513</v>
       </c>
       <c r="Q10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R10">
         <v>6.3</v>
       </c>
       <c r="S10">
-        <v>0.348</v>
+        <v>0.365</v>
       </c>
       <c r="T10">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U10">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="V10">
-        <v>0.5639999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="W10">
-        <v>0.55</v>
+        <v>0.576</v>
       </c>
       <c r="X10">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>5.7</v>
       </c>
       <c r="Z10">
-        <v>0.6929999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AB10">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AC10">
+        <v>7.7</v>
+      </c>
+      <c r="AD10">
         <v>7.8</v>
       </c>
-      <c r="AD10">
-        <v>10.2</v>
-      </c>
       <c r="AE10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AF10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG10">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AH10">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AI10">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="s">
         <v>96</v>
       </c>
       <c r="AK10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s">
         <v>125</v>
       </c>
       <c r="AM10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>32201</v>
+        <v>23116</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -1965,13 +1965,13 @@
         <v>1984</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>82</v>
@@ -1980,79 +1980,79 @@
         <v>84</v>
       </c>
       <c r="K11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>38.8</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="O11">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="P11">
-        <v>0.497</v>
+        <v>0.51</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R11">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="S11">
-        <v>0.362</v>
+        <v>0.33</v>
       </c>
       <c r="T11">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="U11">
-        <v>12.4</v>
+        <v>15.3</v>
       </c>
       <c r="V11">
-        <v>0.5580000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="W11">
-        <v>0.554</v>
+        <v>0.541</v>
       </c>
       <c r="X11">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y11">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z11">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="AA11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AC11">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD11">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="AE11">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF11">
         <v>0.6</v>
       </c>
       <c r="AG11">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AH11">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="AI11">
-        <v>23.4</v>
+        <v>26.7</v>
       </c>
       <c r="AJ11" t="s">
         <v>97</v>
@@ -2064,18 +2064,18 @@
         <v>125</v>
       </c>
       <c r="AM11">
-        <v>2025</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>20761</v>
+        <v>30150</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -2084,94 +2084,94 @@
         <v>1984</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L12">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>40.9</v>
+        <v>37.2</v>
       </c>
       <c r="N12">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
       <c r="O12">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="P12">
-        <v>0.476</v>
+        <v>0.524</v>
       </c>
       <c r="Q12">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>0.319</v>
+        <v>0.359</v>
       </c>
       <c r="T12">
         <v>8.6</v>
       </c>
       <c r="U12">
-        <v>16.8</v>
+        <v>13.8</v>
       </c>
       <c r="V12">
-        <v>0.513</v>
+        <v>0.62</v>
       </c>
       <c r="W12">
-        <v>0.507</v>
+        <v>0.59</v>
       </c>
       <c r="X12">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z12">
-        <v>0.698</v>
+        <v>0.756</v>
       </c>
       <c r="AA12">
         <v>1.1</v>
       </c>
       <c r="AB12">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="AC12">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE12">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AF12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AG12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AH12">
         <v>2.2</v>
       </c>
       <c r="AI12">
-        <v>27.3</v>
+        <v>30.3</v>
       </c>
       <c r="AJ12" t="s">
         <v>98</v>
@@ -2183,18 +2183,18 @@
         <v>125</v>
       </c>
       <c r="AM12">
-        <v>2007</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>26107</v>
+        <v>24275</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -2203,19 +2203,19 @@
         <v>1984</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>76</v>
@@ -2224,73 +2224,73 @@
         <v>76</v>
       </c>
       <c r="M13">
-        <v>35.6</v>
+        <v>37.9</v>
       </c>
       <c r="N13">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="O13">
-        <v>18.6</v>
+        <v>17.8</v>
       </c>
       <c r="P13">
-        <v>0.52</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q13">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="R13">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="S13">
-        <v>0.309</v>
+        <v>0.406</v>
       </c>
       <c r="T13">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U13">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="V13">
-        <v>0.573</v>
+        <v>0.602</v>
       </c>
       <c r="W13">
-        <v>0.551</v>
+        <v>0.603</v>
       </c>
       <c r="X13">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y13">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z13">
-        <v>0.731</v>
+        <v>0.753</v>
       </c>
       <c r="AA13">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB13">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC13">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AE13">
+        <v>1.7</v>
+      </c>
+      <c r="AF13">
+        <v>0.9</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
         <v>1.4</v>
       </c>
-      <c r="AF13">
-        <v>0.6</v>
-      </c>
-      <c r="AG13">
-        <v>3.3</v>
-      </c>
-      <c r="AH13">
-        <v>1.9</v>
-      </c>
       <c r="AI13">
-        <v>25.3</v>
+        <v>26.8</v>
       </c>
       <c r="AJ13" t="s">
         <v>99</v>
@@ -2302,18 +2302,18 @@
         <v>125</v>
       </c>
       <c r="AM13">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>27322</v>
+        <v>28009</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -2322,94 +2322,94 @@
         <v>1984</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M14">
-        <v>36.9</v>
+        <v>35.2</v>
       </c>
       <c r="N14">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="O14">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="P14">
-        <v>0.542</v>
+        <v>0.51</v>
       </c>
       <c r="Q14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="S14">
-        <v>0.367</v>
+        <v>0.339</v>
       </c>
       <c r="T14">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="U14">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="V14">
-        <v>0.603</v>
+        <v>0.582</v>
       </c>
       <c r="W14">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X14">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y14">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z14">
-        <v>0.731</v>
+        <v>0.665</v>
       </c>
       <c r="AA14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC14">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD14">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE14">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AF14">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AG14">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AH14">
         <v>1.7</v>
       </c>
       <c r="AI14">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="AJ14" t="s">
         <v>100</v>
@@ -2421,18 +2421,18 @@
         <v>125</v>
       </c>
       <c r="AM14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>26682</v>
+        <v>20761</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
@@ -2441,13 +2441,13 @@
         <v>1984</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
         <v>82</v>
@@ -2456,79 +2456,79 @@
         <v>83</v>
       </c>
       <c r="K15">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L15">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>37.8</v>
+        <v>40.9</v>
       </c>
       <c r="N15">
         <v>9.9</v>
       </c>
       <c r="O15">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="P15">
-        <v>0.548</v>
+        <v>0.476</v>
       </c>
       <c r="Q15">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="R15">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>0.363</v>
+        <v>0.319</v>
       </c>
       <c r="T15">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="U15">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="V15">
-        <v>0.611</v>
+        <v>0.513</v>
       </c>
       <c r="W15">
-        <v>0.594</v>
+        <v>0.507</v>
       </c>
       <c r="X15">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y15">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Z15">
-        <v>0.674</v>
+        <v>0.698</v>
       </c>
       <c r="AA15">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AB15">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC15">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD15">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="AE15">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AF15">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG15">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AH15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AI15">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="AJ15" t="s">
         <v>101</v>
@@ -2540,18 +2540,18 @@
         <v>125</v>
       </c>
       <c r="AM15">
-        <v>2017</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>24275</v>
+        <v>32216</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -2560,13 +2560,13 @@
         <v>1984</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>82</v>
@@ -2575,79 +2575,79 @@
         <v>85</v>
       </c>
       <c r="K16">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>37.9</v>
+        <v>34.6</v>
       </c>
       <c r="N16">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O16">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P16">
-        <v>0.5649999999999999</v>
+        <v>0.512</v>
       </c>
       <c r="Q16">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="R16">
+        <v>5.5</v>
+      </c>
+      <c r="S16">
+        <v>0.379</v>
+      </c>
+      <c r="T16">
+        <v>7.1</v>
+      </c>
+      <c r="U16">
+        <v>12.5</v>
+      </c>
+      <c r="V16">
+        <v>0.57</v>
+      </c>
+      <c r="W16">
+        <v>0.569</v>
+      </c>
+      <c r="X16">
         <v>3.3</v>
       </c>
-      <c r="S16">
-        <v>0.406</v>
-      </c>
-      <c r="T16">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U16">
-        <v>14.5</v>
-      </c>
-      <c r="V16">
-        <v>0.602</v>
-      </c>
-      <c r="W16">
-        <v>0.603</v>
-      </c>
-      <c r="X16">
-        <v>5.3</v>
-      </c>
       <c r="Y16">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="Z16">
-        <v>0.753</v>
+        <v>0.773</v>
       </c>
       <c r="AA16">
+        <v>0.9</v>
+      </c>
+      <c r="AB16">
+        <v>6.6</v>
+      </c>
+      <c r="AC16">
+        <v>7.5</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16">
+        <v>0.8</v>
+      </c>
+      <c r="AF16">
+        <v>0.5</v>
+      </c>
+      <c r="AG16">
+        <v>3.8</v>
+      </c>
+      <c r="AH16">
         <v>1.3</v>
       </c>
-      <c r="AB16">
-        <v>6.8</v>
-      </c>
-      <c r="AC16">
-        <v>8</v>
-      </c>
-      <c r="AD16">
-        <v>7.3</v>
-      </c>
-      <c r="AE16">
-        <v>1.7</v>
-      </c>
-      <c r="AF16">
-        <v>0.9</v>
-      </c>
-      <c r="AG16">
-        <v>3</v>
-      </c>
-      <c r="AH16">
-        <v>1.4</v>
-      </c>
       <c r="AI16">
-        <v>26.8</v>
+        <v>23.8</v>
       </c>
       <c r="AJ16" t="s">
         <v>102</v>
@@ -2659,18 +2659,18 @@
         <v>125</v>
       </c>
       <c r="AM16">
-        <v>2013</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>23706</v>
+        <v>21320</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -2679,94 +2679,94 @@
         <v>1984</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>37.5</v>
+        <v>40.4</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="O17">
-        <v>18.9</v>
+        <v>21.9</v>
       </c>
       <c r="P17">
-        <v>0.531</v>
+        <v>0.484</v>
       </c>
       <c r="Q17">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="S17">
-        <v>0.362</v>
+        <v>0.315</v>
       </c>
       <c r="T17">
         <v>9.1</v>
       </c>
       <c r="U17">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="V17">
-        <v>0.556</v>
+        <v>0.531</v>
       </c>
       <c r="W17">
-        <v>0.554</v>
+        <v>0.518</v>
       </c>
       <c r="X17">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y17">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
       <c r="Z17">
-        <v>0.771</v>
+        <v>0.712</v>
       </c>
       <c r="AA17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB17">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AC17">
         <v>7.9</v>
       </c>
       <c r="AD17">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AE17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AF17">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AG17">
         <v>3.4</v>
       </c>
       <c r="AH17">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AI17">
-        <v>27.1</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="s">
         <v>103</v>
@@ -2778,7 +2778,7 @@
         <v>125</v>
       </c>
       <c r="AM17">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -2789,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -2810,7 +2810,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>55</v>
@@ -2902,13 +2902,13 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>29371</v>
+        <v>19652</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -2920,91 +2920,91 @@
         <v>80</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>33.4</v>
+        <v>42.4</v>
       </c>
       <c r="N19">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="O19">
-        <v>18.3</v>
+        <v>21.1</v>
       </c>
       <c r="P19">
-        <v>0.513</v>
+        <v>0.472</v>
       </c>
       <c r="Q19">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="R19">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="S19">
-        <v>0.365</v>
+        <v>0.351</v>
       </c>
       <c r="T19">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>17.2</v>
       </c>
       <c r="V19">
-        <v>0.591</v>
+        <v>0.499</v>
       </c>
       <c r="W19">
-        <v>0.576</v>
+        <v>0.504</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="Z19">
-        <v>0.698</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC19">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD19">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE19">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="AF19">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG19">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AH19">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AI19">
-        <v>25</v>
+        <v>27.2</v>
       </c>
       <c r="AJ19" t="s">
         <v>105</v>
@@ -3016,18 +3016,18 @@
         <v>125</v>
       </c>
       <c r="AM19">
-        <v>2021</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>19652</v>
+        <v>20211</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -3036,13 +3036,13 @@
         <v>1984</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>82</v>
@@ -3051,79 +3051,79 @@
         <v>83</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="N20">
-        <v>9.9</v>
+        <v>11.1</v>
       </c>
       <c r="O20">
-        <v>21.1</v>
+        <v>23.1</v>
       </c>
       <c r="P20">
-        <v>0.472</v>
+        <v>0.48</v>
       </c>
       <c r="Q20">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="R20">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="S20">
-        <v>0.351</v>
+        <v>0.335</v>
       </c>
       <c r="T20">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="U20">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="V20">
-        <v>0.499</v>
+        <v>0.518</v>
       </c>
       <c r="W20">
-        <v>0.504</v>
+        <v>0.515</v>
       </c>
       <c r="X20">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="Z20">
-        <v>0.75</v>
+        <v>0.738</v>
       </c>
       <c r="AA20">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AB20">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC20">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD20">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE20">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AF20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AG20">
         <v>3.3</v>
       </c>
       <c r="AH20">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AI20">
-        <v>27.2</v>
+        <v>31.4</v>
       </c>
       <c r="AJ20" t="s">
         <v>106</v>
@@ -3135,18 +3135,18 @@
         <v>125</v>
       </c>
       <c r="AM20">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>24853</v>
+        <v>27322</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -3158,91 +3158,91 @@
         <v>79</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
         <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L21">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M21">
-        <v>37.7</v>
+        <v>36.9</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O21">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
       <c r="P21">
-        <v>0.5669999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="Q21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>0.379</v>
+        <v>0.367</v>
       </c>
       <c r="T21">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="U21">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="V21">
-        <v>0.622</v>
+        <v>0.603</v>
       </c>
       <c r="W21">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="X21">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="Y21">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z21">
-        <v>0.75</v>
+        <v>0.731</v>
       </c>
       <c r="AA21">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AB21">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AC21">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="AD21">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="AE21">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AF21">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AG21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AH21">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI21">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="AJ21" t="s">
         <v>107</v>
@@ -3254,18 +3254,18 @@
         <v>125</v>
       </c>
       <c r="AM21">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>28009</v>
+        <v>23706</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -3274,13 +3274,13 @@
         <v>1984</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
@@ -3289,79 +3289,79 @@
         <v>84</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>35.2</v>
+        <v>37.5</v>
       </c>
       <c r="N22">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="P22">
-        <v>0.51</v>
+        <v>0.531</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="R22">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="S22">
-        <v>0.339</v>
+        <v>0.362</v>
       </c>
       <c r="T22">
+        <v>9.1</v>
+      </c>
+      <c r="U22">
+        <v>16.5</v>
+      </c>
+      <c r="V22">
+        <v>0.556</v>
+      </c>
+      <c r="W22">
+        <v>0.554</v>
+      </c>
+      <c r="X22">
+        <v>6.2</v>
+      </c>
+      <c r="Y22">
         <v>8.1</v>
       </c>
-      <c r="U22">
-        <v>14</v>
-      </c>
-      <c r="V22">
-        <v>0.582</v>
-      </c>
-      <c r="W22">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X22">
-        <v>5.1</v>
-      </c>
-      <c r="Y22">
-        <v>7.6</v>
-      </c>
       <c r="Z22">
-        <v>0.665</v>
+        <v>0.771</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB22">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC22">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD22">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AE22">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AH22">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AI22">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="AJ22" t="s">
         <v>108</v>
@@ -3373,18 +3373,18 @@
         <v>125</v>
       </c>
       <c r="AM22">
-        <v>2019</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23">
-        <v>19051</v>
+        <v>26107</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
@@ -3393,13 +3393,13 @@
         <v>1984</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
         <v>82</v>
@@ -3408,79 +3408,79 @@
         <v>83</v>
       </c>
       <c r="K23">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L23">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>39.5</v>
+        <v>35.6</v>
       </c>
       <c r="N23">
-        <v>7.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O23">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="P23">
-        <v>0.417</v>
+        <v>0.52</v>
       </c>
       <c r="Q23">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="R23">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="S23">
-        <v>0.29</v>
+        <v>0.309</v>
       </c>
       <c r="T23">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="U23">
-        <v>16.1</v>
+        <v>14.9</v>
       </c>
       <c r="V23">
-        <v>0.438</v>
+        <v>0.573</v>
       </c>
       <c r="W23">
-        <v>0.438</v>
+        <v>0.551</v>
       </c>
       <c r="X23">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="Y23">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z23">
-        <v>0.754</v>
+        <v>0.731</v>
       </c>
       <c r="AA23">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AB23">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AC23">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD23">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE23">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AF23">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG23">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH23">
         <v>1.9</v>
       </c>
       <c r="AI23">
-        <v>20.9</v>
+        <v>25.3</v>
       </c>
       <c r="AJ23" t="s">
         <v>109</v>
@@ -3492,18 +3492,18 @@
         <v>125</v>
       </c>
       <c r="AM23">
-        <v>2004</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24">
-        <v>13459</v>
+        <v>18076</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
@@ -3512,13 +3512,13 @@
         <v>1963</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
@@ -3527,79 +3527,79 @@
         <v>86</v>
       </c>
       <c r="K24">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="L24">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>39.3</v>
+        <v>34.9</v>
       </c>
       <c r="N24">
-        <v>12.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O24">
-        <v>25.7</v>
+        <v>22.1</v>
       </c>
       <c r="P24">
-        <v>0.495</v>
+        <v>0.416</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R24">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="S24">
-        <v>0.352</v>
+        <v>0.189</v>
       </c>
       <c r="T24">
-        <v>11.7</v>
+        <v>9</v>
       </c>
       <c r="U24">
-        <v>22.7</v>
+        <v>21.2</v>
       </c>
       <c r="V24">
-        <v>0.514</v>
+        <v>0.426</v>
       </c>
       <c r="W24">
-        <v>0.515</v>
+        <v>0.42</v>
       </c>
       <c r="X24">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="Y24">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z24">
-        <v>0.837</v>
+        <v>0.79</v>
       </c>
       <c r="AA24">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AC24">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="AD24">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AE24">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AF24">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG24">
         <v>2.7</v>
       </c>
       <c r="AH24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI24">
-        <v>32.6</v>
+        <v>22.9</v>
       </c>
       <c r="AJ24" t="s">
         <v>110</v>
@@ -3611,18 +3611,18 @@
         <v>125</v>
       </c>
       <c r="AM24">
-        <v>1993</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25">
-        <v>15484</v>
+        <v>14913</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
@@ -3631,19 +3631,19 @@
         <v>1963</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25">
         <v>82</v>
@@ -3652,73 +3652,73 @@
         <v>82</v>
       </c>
       <c r="M25">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="N25">
         <v>11.2</v>
       </c>
       <c r="O25">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="P25">
-        <v>0.486</v>
+        <v>0.495</v>
       </c>
       <c r="Q25">
         <v>1.4</v>
       </c>
       <c r="R25">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="S25">
-        <v>0.374</v>
+        <v>0.427</v>
       </c>
       <c r="T25">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U25">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V25">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="W25">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="X25">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="Y25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z25">
-        <v>0.833</v>
+        <v>0.834</v>
       </c>
       <c r="AA25">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB25">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC25">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD25">
         <v>4.3</v>
       </c>
       <c r="AE25">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AF25">
         <v>0.5</v>
       </c>
       <c r="AG25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH25">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI25">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="AJ25" t="s">
         <v>111</v>
@@ -3730,18 +3730,18 @@
         <v>125</v>
       </c>
       <c r="AM25">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26">
-        <v>12543</v>
+        <v>14392</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
@@ -3750,94 +3750,94 @@
         <v>1963</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G26">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
         <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="L26">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>39.3</v>
       </c>
       <c r="N26">
-        <v>12.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O26">
-        <v>22.4</v>
+        <v>23.8</v>
       </c>
       <c r="P26">
-        <v>0.539</v>
+        <v>0.411</v>
       </c>
       <c r="Q26">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="R26">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>0.312</v>
+        <v>0.5</v>
       </c>
       <c r="T26">
-        <v>11.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U26">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="V26">
-        <v>0.551</v>
+        <v>0.403</v>
       </c>
       <c r="W26">
-        <v>0.547</v>
+        <v>0.431</v>
       </c>
       <c r="X26">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="Y26">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z26">
-        <v>0.851</v>
+        <v>0.801</v>
       </c>
       <c r="AA26">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB26">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC26">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AD26">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE26">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG26">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH26">
         <v>2.8</v>
       </c>
       <c r="AI26">
-        <v>31.5</v>
+        <v>26.9</v>
       </c>
       <c r="AJ26" t="s">
         <v>112</v>
@@ -3849,18 +3849,18 @@
         <v>125</v>
       </c>
       <c r="AM26">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27">
-        <v>14913</v>
+        <v>16041</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -3869,19 +3869,19 @@
         <v>1963</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
         <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27">
         <v>82</v>
@@ -3890,73 +3890,73 @@
         <v>82</v>
       </c>
       <c r="M27">
-        <v>37.7</v>
+        <v>38.8</v>
       </c>
       <c r="N27">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="O27">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="P27">
-        <v>0.495</v>
+        <v>0.465</v>
       </c>
       <c r="Q27">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="R27">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="S27">
-        <v>0.427</v>
+        <v>0.238</v>
       </c>
       <c r="T27">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="U27">
-        <v>19.4</v>
+        <v>21.5</v>
       </c>
       <c r="V27">
-        <v>0.506</v>
+        <v>0.482</v>
       </c>
       <c r="W27">
-        <v>0.525</v>
+        <v>0.473</v>
       </c>
       <c r="X27">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y27">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.834</v>
+        <v>0.784</v>
       </c>
       <c r="AA27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB27">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC27">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD27">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE27">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AF27">
         <v>0.5</v>
       </c>
       <c r="AG27">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH27">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AI27">
-        <v>30.4</v>
+        <v>28.7</v>
       </c>
       <c r="AJ27" t="s">
         <v>113</v>
@@ -3968,18 +3968,18 @@
         <v>125</v>
       </c>
       <c r="AM27">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28">
-        <v>18076</v>
+        <v>11647</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -3991,10 +3991,10 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
         <v>82</v>
@@ -4003,79 +4003,79 @@
         <v>87</v>
       </c>
       <c r="K28">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M28">
-        <v>34.9</v>
+        <v>40.2</v>
       </c>
       <c r="N28">
-        <v>9.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="O28">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P28">
-        <v>0.416</v>
+        <v>0.538</v>
       </c>
       <c r="Q28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R28">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="S28">
-        <v>0.189</v>
+        <v>0.276</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>11.6</v>
       </c>
       <c r="U28">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V28">
-        <v>0.426</v>
+        <v>0.553</v>
       </c>
       <c r="W28">
-        <v>0.42</v>
+        <v>0.546</v>
       </c>
       <c r="X28">
-        <v>4.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y28">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="AA28">
+        <v>1.8</v>
+      </c>
+      <c r="AB28">
+        <v>6.2</v>
+      </c>
+      <c r="AC28">
+        <v>8</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>2.9</v>
+      </c>
+      <c r="AF28">
         <v>0.8</v>
       </c>
-      <c r="AB28">
-        <v>4.8</v>
-      </c>
-      <c r="AC28">
-        <v>5.7</v>
-      </c>
-      <c r="AD28">
-        <v>5.2</v>
-      </c>
-      <c r="AE28">
-        <v>1.4</v>
-      </c>
-      <c r="AF28">
-        <v>0.4</v>
-      </c>
       <c r="AG28">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AH28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI28">
-        <v>22.9</v>
+        <v>32.5</v>
       </c>
       <c r="AJ28" t="s">
         <v>114</v>
@@ -4087,18 +4087,18 @@
         <v>125</v>
       </c>
       <c r="AM28">
-        <v>2002</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29">
-        <v>10425</v>
+        <v>12079</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="C29">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -4107,94 +4107,94 @@
         <v>1963</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
         <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="N29">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="O29">
-        <v>18.2</v>
+        <v>24</v>
       </c>
       <c r="P29">
-        <v>0.457</v>
+        <v>0.526</v>
       </c>
       <c r="Q29">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29">
-        <v>0.167</v>
+        <v>0.376</v>
       </c>
       <c r="T29">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="U29">
-        <v>17.2</v>
+        <v>21</v>
       </c>
       <c r="V29">
-        <v>0.474</v>
+        <v>0.548</v>
       </c>
       <c r="W29">
-        <v>0.462</v>
+        <v>0.55</v>
       </c>
       <c r="X29">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y29">
+        <v>8.5</v>
+      </c>
+      <c r="Z29">
+        <v>0.848</v>
+      </c>
+      <c r="AA29">
+        <v>1.7</v>
+      </c>
+      <c r="AB29">
+        <v>5.1</v>
+      </c>
+      <c r="AC29">
         <v>6.9</v>
       </c>
-      <c r="Z29">
-        <v>0.84</v>
-      </c>
-      <c r="AA29">
-        <v>1.3</v>
-      </c>
-      <c r="AB29">
-        <v>2.3</v>
-      </c>
-      <c r="AC29">
-        <v>3.6</v>
-      </c>
       <c r="AD29">
+        <v>6.3</v>
+      </c>
+      <c r="AE29">
+        <v>2.8</v>
+      </c>
+      <c r="AF29">
+        <v>0.7</v>
+      </c>
+      <c r="AG29">
+        <v>3</v>
+      </c>
+      <c r="AH29">
         <v>2.9</v>
       </c>
-      <c r="AE29">
-        <v>2.1</v>
-      </c>
-      <c r="AF29">
-        <v>1.2</v>
-      </c>
-      <c r="AG29">
-        <v>2.5</v>
-      </c>
-      <c r="AH29">
-        <v>2.6</v>
-      </c>
       <c r="AI29">
-        <v>22.7</v>
+        <v>33.6</v>
       </c>
       <c r="AJ29" t="s">
         <v>115</v>
@@ -4206,18 +4206,18 @@
         <v>125</v>
       </c>
       <c r="AM29">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30">
-        <v>10813</v>
+        <v>12543</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -4226,19 +4226,19 @@
         <v>1963</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30">
         <v>82</v>
@@ -4247,73 +4247,73 @@
         <v>82</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N30">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="O30">
-        <v>27.8</v>
+        <v>22.4</v>
       </c>
       <c r="P30">
-        <v>0.482</v>
+        <v>0.539</v>
       </c>
       <c r="Q30">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R30">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="S30">
-        <v>0.182</v>
+        <v>0.312</v>
       </c>
       <c r="T30">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="U30">
-        <v>27</v>
+        <v>21.3</v>
       </c>
       <c r="V30">
-        <v>0.491</v>
+        <v>0.551</v>
       </c>
       <c r="W30">
-        <v>0.484</v>
+        <v>0.547</v>
       </c>
       <c r="X30">
-        <v>10.2</v>
+        <v>7</v>
       </c>
       <c r="Y30">
-        <v>11.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z30">
-        <v>0.857</v>
+        <v>0.851</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AB30">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC30">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AD30">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE30">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AF30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH30">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI30">
-        <v>37.1</v>
+        <v>31.5</v>
       </c>
       <c r="AJ30" t="s">
         <v>116</v>
@@ -4325,18 +4325,18 @@
         <v>125</v>
       </c>
       <c r="AM30">
-        <v>1987</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31">
-        <v>18568</v>
+        <v>11208</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="C31">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
@@ -4348,10 +4348,10 @@
         <v>78</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I31" t="s">
         <v>82</v>
@@ -4363,76 +4363,76 @@
         <v>82</v>
       </c>
       <c r="L31">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>40.4</v>
       </c>
       <c r="N31">
-        <v>8.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="O31">
-        <v>18.6</v>
+        <v>24.4</v>
       </c>
       <c r="P31">
-        <v>0.445</v>
+        <v>0.535</v>
       </c>
       <c r="Q31">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R31">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="S31">
-        <v>0.291</v>
+        <v>0.132</v>
       </c>
       <c r="T31">
-        <v>8.1</v>
+        <v>13</v>
       </c>
       <c r="U31">
-        <v>18</v>
+        <v>23.7</v>
       </c>
       <c r="V31">
-        <v>0.45</v>
+        <v>0.546</v>
       </c>
       <c r="W31">
-        <v>0.45</v>
+        <v>0.537</v>
       </c>
       <c r="X31">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>10.5</v>
+      </c>
+      <c r="Z31">
+        <v>0.841</v>
+      </c>
+      <c r="AA31">
+        <v>1.7</v>
+      </c>
+      <c r="AB31">
+        <v>3.8</v>
+      </c>
+      <c r="AC31">
+        <v>5.5</v>
+      </c>
+      <c r="AD31">
+        <v>5.9</v>
+      </c>
+      <c r="AE31">
         <v>3.2</v>
       </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>0.821</v>
-      </c>
-      <c r="AA31">
-        <v>0.9</v>
-      </c>
-      <c r="AB31">
-        <v>5.2</v>
-      </c>
-      <c r="AC31">
-        <v>6.1</v>
-      </c>
-      <c r="AD31">
-        <v>3.8</v>
-      </c>
-      <c r="AE31">
-        <v>1.5</v>
-      </c>
       <c r="AF31">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AG31">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AH31">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="AI31">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="s">
         <v>117</v>
@@ -4444,18 +4444,18 @@
         <v>125</v>
       </c>
       <c r="AM31">
-        <v>2003</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32">
-        <v>12990</v>
+        <v>15484</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
@@ -4464,94 +4464,94 @@
         <v>1963</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
         <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L32">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M32">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="N32">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="O32">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="P32">
-        <v>0.519</v>
+        <v>0.486</v>
       </c>
       <c r="Q32">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="R32">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="S32">
-        <v>0.27</v>
+        <v>0.374</v>
       </c>
       <c r="T32">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="U32">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="V32">
-        <v>0.533</v>
+        <v>0.507</v>
       </c>
       <c r="W32">
-        <v>0.526</v>
+        <v>0.516</v>
       </c>
       <c r="X32">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y32">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z32">
-        <v>0.832</v>
+        <v>0.833</v>
       </c>
       <c r="AA32">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB32">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC32">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AD32">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="AE32">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AF32">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AG32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AH32">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AI32">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="AJ32" t="s">
         <v>118</v>
@@ -4563,18 +4563,18 @@
         <v>125</v>
       </c>
       <c r="AM32">
-        <v>1992</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33">
-        <v>11208</v>
+        <v>10057</v>
       </c>
       <c r="B33" t="s">
         <v>70</v>
       </c>
       <c r="C33">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D33" t="s">
         <v>77</v>
@@ -4583,19 +4583,19 @@
         <v>1963</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
         <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33">
         <v>82</v>
@@ -4604,16 +4604,16 @@
         <v>82</v>
       </c>
       <c r="M33">
-        <v>40.4</v>
+        <v>38.3</v>
       </c>
       <c r="N33">
-        <v>13</v>
+        <v>10.2</v>
       </c>
       <c r="O33">
-        <v>24.4</v>
+        <v>19.8</v>
       </c>
       <c r="P33">
-        <v>0.535</v>
+        <v>0.515</v>
       </c>
       <c r="Q33">
         <v>0.1</v>
@@ -4622,55 +4622,55 @@
         <v>0.6</v>
       </c>
       <c r="S33">
-        <v>0.132</v>
+        <v>0.173</v>
       </c>
       <c r="T33">
-        <v>13</v>
+        <v>10.1</v>
       </c>
       <c r="U33">
-        <v>23.7</v>
+        <v>19.2</v>
       </c>
       <c r="V33">
-        <v>0.546</v>
+        <v>0.526</v>
       </c>
       <c r="W33">
-        <v>0.537</v>
+        <v>0.518</v>
       </c>
       <c r="X33">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="Y33">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="Z33">
-        <v>0.841</v>
+        <v>0.845</v>
       </c>
       <c r="AA33">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AB33">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC33">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD33">
         <v>5.9</v>
       </c>
       <c r="AE33">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AF33">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG33">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AH33">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AI33">
-        <v>35</v>
+        <v>28.2</v>
       </c>
       <c r="AJ33" t="s">
         <v>119</v>
@@ -4682,18 +4682,18 @@
         <v>125</v>
       </c>
       <c r="AM33">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34">
-        <v>14392</v>
+        <v>13459</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -4702,94 +4702,94 @@
         <v>1963</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
         <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M34">
         <v>39.3</v>
       </c>
       <c r="N34">
-        <v>9.800000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="O34">
-        <v>23.8</v>
+        <v>25.7</v>
       </c>
       <c r="P34">
-        <v>0.411</v>
+        <v>0.495</v>
       </c>
       <c r="Q34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>0.352</v>
       </c>
       <c r="T34">
-        <v>8.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="U34">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="V34">
-        <v>0.403</v>
+        <v>0.514</v>
       </c>
       <c r="W34">
-        <v>0.431</v>
+        <v>0.515</v>
       </c>
       <c r="X34">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Y34">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="Z34">
-        <v>0.801</v>
+        <v>0.837</v>
       </c>
       <c r="AA34">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AB34">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AC34">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD34">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE34">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AF34">
         <v>0.8</v>
       </c>
       <c r="AG34">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH34">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI34">
-        <v>26.9</v>
+        <v>32.6</v>
       </c>
       <c r="AJ34" t="s">
         <v>120</v>
@@ -4801,18 +4801,18 @@
         <v>125</v>
       </c>
       <c r="AM34">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35">
-        <v>11647</v>
+        <v>10425</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="C35">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
@@ -4821,94 +4821,94 @@
         <v>1963</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
         <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="L35">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>40.2</v>
+        <v>25.1</v>
       </c>
       <c r="N35">
-        <v>11.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O35">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
       <c r="P35">
-        <v>0.538</v>
+        <v>0.457</v>
       </c>
       <c r="Q35">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0.167</v>
+      </c>
+      <c r="T35">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U35">
+        <v>17.2</v>
+      </c>
+      <c r="V35">
+        <v>0.474</v>
+      </c>
+      <c r="W35">
+        <v>0.462</v>
+      </c>
+      <c r="X35">
+        <v>5.8</v>
+      </c>
+      <c r="Y35">
+        <v>6.9</v>
+      </c>
+      <c r="Z35">
+        <v>0.84</v>
+      </c>
+      <c r="AA35">
+        <v>1.3</v>
+      </c>
+      <c r="AB35">
+        <v>2.3</v>
+      </c>
+      <c r="AC35">
+        <v>3.6</v>
+      </c>
+      <c r="AD35">
+        <v>2.9</v>
+      </c>
+      <c r="AE35">
+        <v>2.1</v>
+      </c>
+      <c r="AF35">
         <v>1.2</v>
       </c>
-      <c r="S35">
-        <v>0.276</v>
-      </c>
-      <c r="T35">
-        <v>11.6</v>
-      </c>
-      <c r="U35">
-        <v>21</v>
-      </c>
-      <c r="V35">
-        <v>0.553</v>
-      </c>
-      <c r="W35">
-        <v>0.546</v>
-      </c>
-      <c r="X35">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y35">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z35">
-        <v>0.85</v>
-      </c>
-      <c r="AA35">
-        <v>1.8</v>
-      </c>
-      <c r="AB35">
-        <v>6.2</v>
-      </c>
-      <c r="AC35">
-        <v>8</v>
-      </c>
-      <c r="AD35">
-        <v>8</v>
-      </c>
-      <c r="AE35">
-        <v>2.9</v>
-      </c>
-      <c r="AF35">
-        <v>0.8</v>
-      </c>
       <c r="AG35">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH35">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AI35">
-        <v>32.5</v>
+        <v>22.7</v>
       </c>
       <c r="AJ35" t="s">
         <v>121</v>
@@ -4920,18 +4920,18 @@
         <v>125</v>
       </c>
       <c r="AM35">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36">
-        <v>10057</v>
+        <v>10813</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -4940,19 +4940,19 @@
         <v>1963</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
         <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36">
         <v>82</v>
@@ -4961,73 +4961,73 @@
         <v>82</v>
       </c>
       <c r="M36">
-        <v>38.3</v>
+        <v>40</v>
       </c>
       <c r="N36">
-        <v>10.2</v>
+        <v>13.4</v>
       </c>
       <c r="O36">
-        <v>19.8</v>
+        <v>27.8</v>
       </c>
       <c r="P36">
-        <v>0.515</v>
+        <v>0.482</v>
       </c>
       <c r="Q36">
         <v>0.1</v>
       </c>
       <c r="R36">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="S36">
-        <v>0.173</v>
+        <v>0.182</v>
       </c>
       <c r="T36">
-        <v>10.1</v>
+        <v>13.2</v>
       </c>
       <c r="U36">
-        <v>19.2</v>
+        <v>27</v>
       </c>
       <c r="V36">
-        <v>0.526</v>
+        <v>0.491</v>
       </c>
       <c r="W36">
-        <v>0.518</v>
+        <v>0.484</v>
       </c>
       <c r="X36">
-        <v>7.7</v>
+        <v>10.2</v>
       </c>
       <c r="Y36">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="Z36">
-        <v>0.845</v>
+        <v>0.857</v>
       </c>
       <c r="AA36">
         <v>2</v>
       </c>
       <c r="AB36">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC36">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="AD36">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="AE36">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AF36">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AG36">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH36">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AI36">
-        <v>28.2</v>
+        <v>37.1</v>
       </c>
       <c r="AJ36" t="s">
         <v>122</v>
@@ -5039,18 +5039,18 @@
         <v>125</v>
       </c>
       <c r="AM36">
-        <v>1985</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37">
-        <v>12079</v>
+        <v>12990</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -5059,94 +5059,94 @@
         <v>1963</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G37">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L37">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="N37">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
       <c r="O37">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="P37">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="Q37">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="S37">
-        <v>0.376</v>
+        <v>0.27</v>
       </c>
       <c r="T37">
         <v>11.5</v>
       </c>
       <c r="U37">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="V37">
-        <v>0.548</v>
+        <v>0.533</v>
       </c>
       <c r="W37">
-        <v>0.55</v>
+        <v>0.526</v>
       </c>
       <c r="X37">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y37">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z37">
-        <v>0.848</v>
+        <v>0.832</v>
       </c>
       <c r="AA37">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB37">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC37">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AD37">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE37">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AF37">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AG37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH37">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AI37">
-        <v>33.6</v>
+        <v>30.1</v>
       </c>
       <c r="AJ37" t="s">
         <v>123</v>
@@ -5158,18 +5158,18 @@
         <v>125</v>
       </c>
       <c r="AM37">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38">
-        <v>16041</v>
+        <v>18568</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
@@ -5178,13 +5178,13 @@
         <v>1963</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
         <v>82</v>
@@ -5196,76 +5196,76 @@
         <v>82</v>
       </c>
       <c r="L38">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="N38">
-        <v>10.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O38">
-        <v>23.1</v>
+        <v>18.6</v>
       </c>
       <c r="P38">
-        <v>0.465</v>
+        <v>0.445</v>
       </c>
       <c r="Q38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R38">
+        <v>0.7</v>
+      </c>
+      <c r="S38">
+        <v>0.291</v>
+      </c>
+      <c r="T38">
+        <v>8.1</v>
+      </c>
+      <c r="U38">
+        <v>18</v>
+      </c>
+      <c r="V38">
+        <v>0.45</v>
+      </c>
+      <c r="W38">
+        <v>0.45</v>
+      </c>
+      <c r="X38">
+        <v>3.2</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>0.821</v>
+      </c>
+      <c r="AA38">
+        <v>0.9</v>
+      </c>
+      <c r="AB38">
+        <v>5.2</v>
+      </c>
+      <c r="AC38">
+        <v>6.1</v>
+      </c>
+      <c r="AD38">
+        <v>3.8</v>
+      </c>
+      <c r="AE38">
         <v>1.5</v>
-      </c>
-      <c r="S38">
-        <v>0.238</v>
-      </c>
-      <c r="T38">
-        <v>10.4</v>
-      </c>
-      <c r="U38">
-        <v>21.5</v>
-      </c>
-      <c r="V38">
-        <v>0.482</v>
-      </c>
-      <c r="W38">
-        <v>0.473</v>
-      </c>
-      <c r="X38">
-        <v>6.9</v>
-      </c>
-      <c r="Y38">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z38">
-        <v>0.784</v>
-      </c>
-      <c r="AA38">
-        <v>1.6</v>
-      </c>
-      <c r="AB38">
-        <v>4.2</v>
-      </c>
-      <c r="AC38">
-        <v>5.8</v>
-      </c>
-      <c r="AD38">
-        <v>3.5</v>
-      </c>
-      <c r="AE38">
-        <v>1.7</v>
       </c>
       <c r="AF38">
         <v>0.5</v>
       </c>
       <c r="AG38">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH38">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AI38">
-        <v>28.7</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s">
         <v>124</v>
@@ -5277,7 +5277,7 @@
         <v>125</v>
       </c>
       <c r="AM38">
-        <v>1998</v>
+        <v>2003</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_and_lebron_james_per_game_averages.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_averages.xlsx
@@ -136,111 +136,111 @@
     <t>2004</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2017</t>
+    <t>2012</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
     <t>1996</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
     <t>1995</t>
   </si>
   <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
     <t>1993</t>
   </si>
   <si>
-    <t>1986</t>
-  </si>
-  <si>
     <t>1987</t>
   </si>
   <si>
-    <t>1992</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -268,124 +268,124 @@
     <t>CLE</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>LAL</t>
+    <t>CHI</t>
   </si>
   <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
     <t>2003-04</t>
   </si>
   <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
     <t>2013-14</t>
   </si>
   <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2016-17</t>
+    <t>2011-12</t>
   </si>
   <si>
     <t>2009-10</t>
   </si>
   <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
     <t>2019-20</t>
   </si>
   <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2021-22</t>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>2007-08</t>
   </si>
   <si>
     <t>2012-13</t>
   </si>
   <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
     <t>2015-16</t>
   </si>
   <si>
+    <t>1985-86</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
     <t>2001-02</t>
   </si>
   <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>1984-85</t>
+  </si>
+  <si>
     <t>1995-06</t>
   </si>
   <si>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>1997-98</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
     <t>1994-95</t>
   </si>
   <si>
-    <t>1997-98</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1984-85</t>
-  </si>
-  <si>
     <t>1992-93</t>
   </si>
   <si>
-    <t>1985-86</t>
-  </si>
-  <si>
     <t>1986-87</t>
-  </si>
-  <si>
-    <t>1991-92</t>
   </si>
   <si>
     <t>2002-03</t>
@@ -879,13 +879,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>19051</v>
+        <v>19050</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>24853</v>
+        <v>28007</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -1016,10 +1016,10 @@
         <v>79</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
@@ -1028,79 +1028,79 @@
         <v>84</v>
       </c>
       <c r="K3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="L3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>37.7</v>
+        <v>35.2</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="O3">
-        <v>17.6</v>
+        <v>19.9</v>
       </c>
       <c r="P3">
-        <v>0.5669999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="Q3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="S3">
-        <v>0.379</v>
+        <v>0.339</v>
       </c>
       <c r="T3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="U3">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="V3">
-        <v>0.622</v>
+        <v>0.582</v>
       </c>
       <c r="W3">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X3">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y3">
         <v>7.6</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.665</v>
       </c>
       <c r="AA3">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AC3">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE3">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AG3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AH3">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI3">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="AJ3" t="s">
         <v>89</v>
@@ -1112,18 +1112,18 @@
         <v>125</v>
       </c>
       <c r="AM3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>31585</v>
+        <v>30149</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1132,94 +1132,94 @@
         <v>1984</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L4">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>35.3</v>
+        <v>37.2</v>
       </c>
       <c r="N4">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="O4">
-        <v>17.9</v>
+        <v>21.8</v>
       </c>
       <c r="P4">
-        <v>0.54</v>
+        <v>0.524</v>
       </c>
       <c r="Q4">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="R4">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>0.41</v>
+        <v>0.359</v>
       </c>
       <c r="T4">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="U4">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="V4">
-        <v>0.592</v>
+        <v>0.62</v>
       </c>
       <c r="W4">
-        <v>0.599</v>
+        <v>0.59</v>
       </c>
       <c r="X4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y4">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AA4">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AB4">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AC4">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AE4">
         <v>1.3</v>
       </c>
       <c r="AF4">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AG4">
         <v>3.5</v>
       </c>
       <c r="AH4">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI4">
-        <v>25.7</v>
+        <v>30.3</v>
       </c>
       <c r="AJ4" t="s">
         <v>90</v>
@@ -1231,18 +1231,18 @@
         <v>125</v>
       </c>
       <c r="AM4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>25491</v>
+        <v>26680</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
@@ -1251,13 +1251,13 @@
         <v>1984</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
@@ -1266,79 +1266,79 @@
         <v>83</v>
       </c>
       <c r="K5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>36.1</v>
+        <v>37.8</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="O5">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P5">
-        <v>0.488</v>
+        <v>0.548</v>
       </c>
       <c r="Q5">
         <v>1.7</v>
       </c>
       <c r="R5">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="S5">
-        <v>0.354</v>
+        <v>0.363</v>
       </c>
       <c r="T5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U5">
+        <v>13.5</v>
+      </c>
+      <c r="V5">
+        <v>0.611</v>
+      </c>
+      <c r="W5">
+        <v>0.594</v>
+      </c>
+      <c r="X5">
+        <v>4.8</v>
+      </c>
+      <c r="Y5">
+        <v>7.2</v>
+      </c>
+      <c r="Z5">
+        <v>0.674</v>
+      </c>
+      <c r="AA5">
+        <v>1.3</v>
+      </c>
+      <c r="AB5">
         <v>7.3</v>
       </c>
-      <c r="U5">
-        <v>13.6</v>
-      </c>
-      <c r="V5">
-        <v>0.536</v>
-      </c>
-      <c r="W5">
-        <v>0.535</v>
-      </c>
-      <c r="X5">
-        <v>5.4</v>
-      </c>
-      <c r="Y5">
-        <v>7.7</v>
-      </c>
-      <c r="Z5">
-        <v>0.71</v>
-      </c>
-      <c r="AA5">
-        <v>0.7</v>
-      </c>
-      <c r="AB5">
-        <v>5.3</v>
-      </c>
       <c r="AC5">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="AD5">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE5">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AF5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG5">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI5">
-        <v>25.3</v>
+        <v>26.4</v>
       </c>
       <c r="AJ5" t="s">
         <v>91</v>
@@ -1350,18 +1350,18 @@
         <v>125</v>
       </c>
       <c r="AM5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>21909</v>
+        <v>27321</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1373,10 +1373,10 @@
         <v>80</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -1385,79 +1385,79 @@
         <v>83</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6">
-        <v>37.7</v>
+        <v>36.9</v>
       </c>
       <c r="N6">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="O6">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
       <c r="P6">
-        <v>0.489</v>
+        <v>0.542</v>
       </c>
       <c r="Q6">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>0.367</v>
+      </c>
+      <c r="T6">
+        <v>8.6</v>
+      </c>
+      <c r="U6">
+        <v>14.3</v>
+      </c>
+      <c r="V6">
+        <v>0.603</v>
+      </c>
+      <c r="W6">
+        <v>0.59</v>
+      </c>
+      <c r="X6">
         <v>4.7</v>
       </c>
-      <c r="S6">
-        <v>0.344</v>
-      </c>
-      <c r="T6">
-        <v>8.1</v>
-      </c>
-      <c r="U6">
-        <v>15.2</v>
-      </c>
-      <c r="V6">
-        <v>0.535</v>
-      </c>
-      <c r="W6">
-        <v>0.53</v>
-      </c>
-      <c r="X6">
-        <v>7.3</v>
-      </c>
       <c r="Y6">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6">
-        <v>0.78</v>
+        <v>0.731</v>
       </c>
       <c r="AA6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AB6">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD6">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="AE6">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AF6">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AH6">
         <v>1.7</v>
       </c>
       <c r="AI6">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="AJ6" t="s">
         <v>92</v>
@@ -1469,18 +1469,18 @@
         <v>125</v>
       </c>
       <c r="AM6">
-        <v>2009</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>26682</v>
+        <v>20760</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
@@ -1489,13 +1489,13 @@
         <v>1984</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
@@ -1504,79 +1504,79 @@
         <v>83</v>
       </c>
       <c r="K7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>37.8</v>
+        <v>40.9</v>
       </c>
       <c r="N7">
         <v>9.9</v>
       </c>
       <c r="O7">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="P7">
-        <v>0.548</v>
+        <v>0.476</v>
       </c>
       <c r="Q7">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="R7">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>0.363</v>
+        <v>0.319</v>
       </c>
       <c r="T7">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="U7">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="V7">
-        <v>0.611</v>
+        <v>0.513</v>
       </c>
       <c r="W7">
-        <v>0.594</v>
+        <v>0.507</v>
       </c>
       <c r="X7">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y7">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Z7">
-        <v>0.674</v>
+        <v>0.698</v>
       </c>
       <c r="AA7">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AB7">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC7">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD7">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AF7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG7">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AH7">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AI7">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="AJ7" t="s">
         <v>93</v>
@@ -1588,18 +1588,18 @@
         <v>125</v>
       </c>
       <c r="AM7">
-        <v>2017</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>22500</v>
+        <v>21908</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1608,13 +1608,13 @@
         <v>1984</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>82</v>
@@ -1623,79 +1623,79 @@
         <v>83</v>
       </c>
       <c r="K8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>37.7</v>
       </c>
       <c r="N8">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O8">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P8">
-        <v>0.503</v>
+        <v>0.489</v>
       </c>
       <c r="Q8">
+        <v>1.6</v>
+      </c>
+      <c r="R8">
+        <v>4.7</v>
+      </c>
+      <c r="S8">
+        <v>0.344</v>
+      </c>
+      <c r="T8">
+        <v>8.1</v>
+      </c>
+      <c r="U8">
+        <v>15.2</v>
+      </c>
+      <c r="V8">
+        <v>0.535</v>
+      </c>
+      <c r="W8">
+        <v>0.53</v>
+      </c>
+      <c r="X8">
+        <v>7.3</v>
+      </c>
+      <c r="Y8">
+        <v>9.4</v>
+      </c>
+      <c r="Z8">
+        <v>0.78</v>
+      </c>
+      <c r="AA8">
+        <v>1.3</v>
+      </c>
+      <c r="AB8">
+        <v>6.3</v>
+      </c>
+      <c r="AC8">
+        <v>7.6</v>
+      </c>
+      <c r="AD8">
+        <v>7.2</v>
+      </c>
+      <c r="AE8">
         <v>1.7</v>
       </c>
-      <c r="R8">
-        <v>5.1</v>
-      </c>
-      <c r="S8">
-        <v>0.333</v>
-      </c>
-      <c r="T8">
-        <v>8.4</v>
-      </c>
-      <c r="U8">
-        <v>15</v>
-      </c>
-      <c r="V8">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W8">
-        <v>0.545</v>
-      </c>
-      <c r="X8">
-        <v>7.8</v>
-      </c>
-      <c r="Y8">
-        <v>10.2</v>
-      </c>
-      <c r="Z8">
-        <v>0.767</v>
-      </c>
-      <c r="AA8">
-        <v>0.9</v>
-      </c>
-      <c r="AB8">
-        <v>6.4</v>
-      </c>
-      <c r="AC8">
-        <v>7.3</v>
-      </c>
-      <c r="AD8">
-        <v>8.6</v>
-      </c>
-      <c r="AE8">
-        <v>1.6</v>
-      </c>
       <c r="AF8">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AG8">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AH8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI8">
-        <v>29.7</v>
+        <v>28.4</v>
       </c>
       <c r="AJ8" t="s">
         <v>94</v>
@@ -1707,18 +1707,18 @@
         <v>125</v>
       </c>
       <c r="AM8">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>28697</v>
+        <v>31585</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -1727,117 +1727,117 @@
         <v>1984</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M9">
-        <v>34.6</v>
+        <v>35.3</v>
       </c>
       <c r="N9">
         <v>9.6</v>
       </c>
       <c r="O9">
-        <v>19.4</v>
+        <v>17.9</v>
       </c>
       <c r="P9">
-        <v>0.493</v>
+        <v>0.54</v>
       </c>
       <c r="Q9">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="S9">
-        <v>0.348</v>
+        <v>0.41</v>
       </c>
       <c r="T9">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U9">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="V9">
-        <v>0.5639999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="W9">
-        <v>0.55</v>
+        <v>0.599</v>
       </c>
       <c r="X9">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="Y9">
         <v>5.7</v>
       </c>
       <c r="Z9">
-        <v>0.6929999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AB9">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AC9">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD9">
-        <v>10.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF9">
         <v>0.5</v>
       </c>
       <c r="AG9">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AH9">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AI9">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="AJ9" t="s">
         <v>95</v>
       </c>
       <c r="AK9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s">
         <v>125</v>
       </c>
       <c r="AM9">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>29371</v>
+        <v>25490</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
@@ -1846,94 +1846,94 @@
         <v>1984</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>33.4</v>
+        <v>36.1</v>
       </c>
       <c r="N10">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P10">
-        <v>0.513</v>
+        <v>0.488</v>
       </c>
       <c r="Q10">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R10">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="S10">
-        <v>0.365</v>
+        <v>0.354</v>
       </c>
       <c r="T10">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U10">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="V10">
-        <v>0.591</v>
+        <v>0.536</v>
       </c>
       <c r="W10">
-        <v>0.576</v>
+        <v>0.535</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="Y10">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="Z10">
-        <v>0.698</v>
+        <v>0.71</v>
       </c>
       <c r="AA10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AB10">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AC10">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE10">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AF10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG10">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AH10">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AI10">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="AJ10" t="s">
         <v>96</v>
@@ -1945,18 +1945,18 @@
         <v>125</v>
       </c>
       <c r="AM10">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>23116</v>
+        <v>24852</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -1968,91 +1968,91 @@
         <v>80</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M11">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="N11">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="P11">
-        <v>0.51</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Q11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="R11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>0.33</v>
+        <v>0.379</v>
       </c>
       <c r="T11">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="U11">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="V11">
-        <v>0.552</v>
+        <v>0.622</v>
       </c>
       <c r="W11">
-        <v>0.541</v>
+        <v>0.61</v>
       </c>
       <c r="X11">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y11">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z11">
-        <v>0.759</v>
+        <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB11">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC11">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD11">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE11">
         <v>1.6</v>
       </c>
       <c r="AF11">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH11">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AI11">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="AJ11" t="s">
         <v>97</v>
@@ -2064,18 +2064,18 @@
         <v>125</v>
       </c>
       <c r="AM11">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>30150</v>
+        <v>23703</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -2087,10 +2087,10 @@
         <v>79</v>
       </c>
       <c r="G12">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -2099,79 +2099,79 @@
         <v>85</v>
       </c>
       <c r="K12">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L12">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="N12">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>21.8</v>
+        <v>18.9</v>
       </c>
       <c r="P12">
-        <v>0.524</v>
+        <v>0.531</v>
       </c>
       <c r="Q12">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="S12">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="T12">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="U12">
-        <v>13.8</v>
+        <v>16.5</v>
       </c>
       <c r="V12">
-        <v>0.62</v>
+        <v>0.556</v>
       </c>
       <c r="W12">
-        <v>0.59</v>
+        <v>0.554</v>
       </c>
       <c r="X12">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y12">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="Z12">
-        <v>0.756</v>
+        <v>0.771</v>
       </c>
       <c r="AA12">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AB12">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AC12">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AD12">
         <v>6.2</v>
       </c>
       <c r="AE12">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF12">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AG12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH12">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AI12">
-        <v>30.3</v>
+        <v>27.1</v>
       </c>
       <c r="AJ12" t="s">
         <v>98</v>
@@ -2183,18 +2183,18 @@
         <v>125</v>
       </c>
       <c r="AM12">
-        <v>2022</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>24275</v>
+        <v>22499</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
@@ -2206,16 +2206,16 @@
         <v>79</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>76</v>
@@ -2224,73 +2224,73 @@
         <v>76</v>
       </c>
       <c r="M13">
-        <v>37.9</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>10.1</v>
       </c>
       <c r="O13">
-        <v>17.8</v>
+        <v>20.1</v>
       </c>
       <c r="P13">
-        <v>0.5649999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="Q13">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R13">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="S13">
-        <v>0.406</v>
+        <v>0.333</v>
       </c>
       <c r="T13">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U13">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V13">
-        <v>0.602</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W13">
-        <v>0.603</v>
+        <v>0.545</v>
       </c>
       <c r="X13">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>10.2</v>
       </c>
       <c r="Z13">
-        <v>0.753</v>
+        <v>0.767</v>
       </c>
       <c r="AA13">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AB13">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC13">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AD13">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="AE13">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AF13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AH13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AI13">
-        <v>26.8</v>
+        <v>29.7</v>
       </c>
       <c r="AJ13" t="s">
         <v>99</v>
@@ -2302,18 +2302,18 @@
         <v>125</v>
       </c>
       <c r="AM13">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>28009</v>
+        <v>23115</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -2322,13 +2322,13 @@
         <v>1984</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
@@ -2337,67 +2337,67 @@
         <v>85</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="L14">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>35.2</v>
+        <v>38.8</v>
       </c>
       <c r="N14">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="O14">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="P14">
         <v>0.51</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R14">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="S14">
-        <v>0.339</v>
+        <v>0.33</v>
       </c>
       <c r="T14">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="U14">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="V14">
-        <v>0.582</v>
+        <v>0.552</v>
       </c>
       <c r="W14">
-        <v>0.5600000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="X14">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="Y14">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z14">
-        <v>0.665</v>
+        <v>0.759</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC14">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD14">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AE14">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF14">
         <v>0.6</v>
@@ -2406,10 +2406,10 @@
         <v>3.6</v>
       </c>
       <c r="AH14">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI14">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="AJ14" t="s">
         <v>100</v>
@@ -2421,18 +2421,18 @@
         <v>125</v>
       </c>
       <c r="AM14">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>20761</v>
+        <v>29371</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
@@ -2441,94 +2441,94 @@
         <v>1984</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>45</v>
+      </c>
+      <c r="L15">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>33.4</v>
+      </c>
+      <c r="N15">
+        <v>9.4</v>
+      </c>
+      <c r="O15">
+        <v>18.3</v>
+      </c>
+      <c r="P15">
+        <v>0.513</v>
+      </c>
+      <c r="Q15">
+        <v>2.3</v>
+      </c>
+      <c r="R15">
+        <v>6.3</v>
+      </c>
+      <c r="S15">
+        <v>0.365</v>
+      </c>
+      <c r="T15">
+        <v>7.1</v>
+      </c>
+      <c r="U15">
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <v>0.591</v>
+      </c>
+      <c r="W15">
+        <v>0.576</v>
+      </c>
+      <c r="X15">
         <v>4</v>
       </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15">
-        <v>78</v>
-      </c>
-      <c r="L15">
-        <v>78</v>
-      </c>
-      <c r="M15">
-        <v>40.9</v>
-      </c>
-      <c r="N15">
-        <v>9.9</v>
-      </c>
-      <c r="O15">
-        <v>20.8</v>
-      </c>
-      <c r="P15">
-        <v>0.476</v>
-      </c>
-      <c r="Q15">
-        <v>1.3</v>
-      </c>
-      <c r="R15">
-        <v>4</v>
-      </c>
-      <c r="S15">
-        <v>0.319</v>
-      </c>
-      <c r="T15">
-        <v>8.6</v>
-      </c>
-      <c r="U15">
-        <v>16.8</v>
-      </c>
-      <c r="V15">
-        <v>0.513</v>
-      </c>
-      <c r="W15">
-        <v>0.507</v>
-      </c>
-      <c r="X15">
-        <v>6.3</v>
-      </c>
       <c r="Y15">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="Z15">
         <v>0.698</v>
       </c>
       <c r="AA15">
+        <v>0.6</v>
+      </c>
+      <c r="AB15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>7.7</v>
+      </c>
+      <c r="AD15">
+        <v>7.8</v>
+      </c>
+      <c r="AE15">
         <v>1.1</v>
       </c>
-      <c r="AB15">
-        <v>5.7</v>
-      </c>
-      <c r="AC15">
-        <v>6.7</v>
-      </c>
-      <c r="AD15">
-        <v>6</v>
-      </c>
-      <c r="AE15">
+      <c r="AF15">
+        <v>0.6</v>
+      </c>
+      <c r="AG15">
+        <v>3.7</v>
+      </c>
+      <c r="AH15">
         <v>1.6</v>
       </c>
-      <c r="AF15">
-        <v>0.7</v>
-      </c>
-      <c r="AG15">
-        <v>3.2</v>
-      </c>
-      <c r="AH15">
-        <v>2.2</v>
-      </c>
       <c r="AI15">
-        <v>27.3</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="s">
         <v>101</v>
@@ -2540,18 +2540,18 @@
         <v>125</v>
       </c>
       <c r="AM15">
-        <v>2007</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>32216</v>
+        <v>20210</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -2560,94 +2560,94 @@
         <v>1984</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>34.6</v>
+        <v>42.5</v>
       </c>
       <c r="N16">
-        <v>9.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="O16">
-        <v>18</v>
+        <v>23.1</v>
       </c>
       <c r="P16">
-        <v>0.512</v>
+        <v>0.48</v>
       </c>
       <c r="Q16">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="R16">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="S16">
-        <v>0.379</v>
+        <v>0.335</v>
       </c>
       <c r="T16">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="U16">
-        <v>12.5</v>
+        <v>18.3</v>
       </c>
       <c r="V16">
-        <v>0.57</v>
+        <v>0.518</v>
       </c>
       <c r="W16">
-        <v>0.569</v>
+        <v>0.515</v>
       </c>
       <c r="X16">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="Y16">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="Z16">
-        <v>0.773</v>
+        <v>0.738</v>
       </c>
       <c r="AA16">
         <v>0.9</v>
       </c>
       <c r="AB16">
+        <v>6.1</v>
+      </c>
+      <c r="AC16">
+        <v>7</v>
+      </c>
+      <c r="AD16">
         <v>6.6</v>
       </c>
-      <c r="AC16">
-        <v>7.5</v>
-      </c>
-      <c r="AD16">
-        <v>9</v>
-      </c>
       <c r="AE16">
+        <v>1.6</v>
+      </c>
+      <c r="AF16">
         <v>0.8</v>
       </c>
-      <c r="AF16">
-        <v>0.5</v>
-      </c>
       <c r="AG16">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH16">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AI16">
-        <v>23.8</v>
+        <v>31.4</v>
       </c>
       <c r="AJ16" t="s">
         <v>102</v>
@@ -2659,18 +2659,18 @@
         <v>125</v>
       </c>
       <c r="AM16">
-        <v>2025</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>21320</v>
+        <v>28697</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -2679,117 +2679,117 @@
         <v>1984</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L17">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M17">
-        <v>40.4</v>
+        <v>34.6</v>
       </c>
       <c r="N17">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="O17">
-        <v>21.9</v>
+        <v>19.4</v>
       </c>
       <c r="P17">
-        <v>0.484</v>
+        <v>0.493</v>
       </c>
       <c r="Q17">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="R17">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="S17">
-        <v>0.315</v>
+        <v>0.348</v>
       </c>
       <c r="T17">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="U17">
-        <v>17.1</v>
+        <v>13.1</v>
       </c>
       <c r="V17">
-        <v>0.531</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="W17">
-        <v>0.518</v>
+        <v>0.55</v>
       </c>
       <c r="X17">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="Y17">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z17">
-        <v>0.712</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>6.9</v>
+      </c>
+      <c r="AC17">
+        <v>7.8</v>
+      </c>
+      <c r="AD17">
+        <v>10.2</v>
+      </c>
+      <c r="AE17">
+        <v>1.2</v>
+      </c>
+      <c r="AF17">
+        <v>0.5</v>
+      </c>
+      <c r="AG17">
+        <v>3.9</v>
+      </c>
+      <c r="AH17">
         <v>1.8</v>
       </c>
-      <c r="AB17">
-        <v>6.1</v>
-      </c>
-      <c r="AC17">
-        <v>7.9</v>
-      </c>
-      <c r="AD17">
-        <v>7.2</v>
-      </c>
-      <c r="AE17">
-        <v>1.8</v>
-      </c>
-      <c r="AF17">
-        <v>1.1</v>
-      </c>
-      <c r="AG17">
-        <v>3.4</v>
-      </c>
-      <c r="AH17">
-        <v>2.2</v>
-      </c>
       <c r="AI17">
-        <v>30</v>
+        <v>25.3</v>
       </c>
       <c r="AJ17" t="s">
         <v>103</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="s">
         <v>125</v>
       </c>
       <c r="AM17">
-        <v>2008</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18">
-        <v>30873</v>
+        <v>30872</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -2798,7 +2798,7 @@
         <v>1984</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>39</v>
@@ -2810,7 +2810,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <v>55</v>
@@ -2902,13 +2902,13 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>19652</v>
+        <v>19651</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -2917,7 +2917,7 @@
         <v>1984</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19">
         <v>21</v>
@@ -3021,13 +3021,13 @@
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>20211</v>
+        <v>32276</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -3036,94 +3036,94 @@
         <v>1984</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20">
+        <v>41</v>
+      </c>
+      <c r="H20">
         <v>22</v>
       </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
       <c r="I20" t="s">
         <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L20">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>42.5</v>
+        <v>34.5</v>
       </c>
       <c r="N20">
-        <v>11.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O20">
-        <v>23.1</v>
+        <v>18.1</v>
       </c>
       <c r="P20">
-        <v>0.48</v>
+        <v>0.516</v>
       </c>
       <c r="Q20">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="R20">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="S20">
-        <v>0.335</v>
+        <v>0.395</v>
       </c>
       <c r="T20">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="U20">
-        <v>18.3</v>
+        <v>12.4</v>
       </c>
       <c r="V20">
-        <v>0.518</v>
+        <v>0.571</v>
       </c>
       <c r="W20">
-        <v>0.515</v>
+        <v>0.578</v>
       </c>
       <c r="X20">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="Y20">
-        <v>10.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z20">
-        <v>0.738</v>
+        <v>0.759</v>
       </c>
       <c r="AA20">
         <v>0.9</v>
       </c>
       <c r="AB20">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="AC20">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AD20">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AE20">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AF20">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG20">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AH20">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="AI20">
-        <v>31.4</v>
+        <v>24.3</v>
       </c>
       <c r="AJ20" t="s">
         <v>106</v>
@@ -3135,18 +3135,18 @@
         <v>125</v>
       </c>
       <c r="AM20">
-        <v>2006</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>27322</v>
+        <v>21319</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -3158,10 +3158,10 @@
         <v>79</v>
       </c>
       <c r="G21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
         <v>82</v>
@@ -3170,79 +3170,79 @@
         <v>83</v>
       </c>
       <c r="K21">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L21">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>36.9</v>
+        <v>40.4</v>
       </c>
       <c r="N21">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="O21">
-        <v>19.3</v>
+        <v>21.9</v>
       </c>
       <c r="P21">
-        <v>0.542</v>
+        <v>0.484</v>
       </c>
       <c r="Q21">
+        <v>1.5</v>
+      </c>
+      <c r="R21">
+        <v>4.8</v>
+      </c>
+      <c r="S21">
+        <v>0.315</v>
+      </c>
+      <c r="T21">
+        <v>9.1</v>
+      </c>
+      <c r="U21">
+        <v>17.1</v>
+      </c>
+      <c r="V21">
+        <v>0.531</v>
+      </c>
+      <c r="W21">
+        <v>0.518</v>
+      </c>
+      <c r="X21">
+        <v>7.3</v>
+      </c>
+      <c r="Y21">
+        <v>10.3</v>
+      </c>
+      <c r="Z21">
+        <v>0.712</v>
+      </c>
+      <c r="AA21">
         <v>1.8</v>
       </c>
-      <c r="R21">
-        <v>5</v>
-      </c>
-      <c r="S21">
-        <v>0.367</v>
-      </c>
-      <c r="T21">
-        <v>8.6</v>
-      </c>
-      <c r="U21">
-        <v>14.3</v>
-      </c>
-      <c r="V21">
-        <v>0.603</v>
-      </c>
-      <c r="W21">
-        <v>0.59</v>
-      </c>
-      <c r="X21">
-        <v>4.7</v>
-      </c>
-      <c r="Y21">
-        <v>6.5</v>
-      </c>
-      <c r="Z21">
-        <v>0.731</v>
-      </c>
-      <c r="AA21">
-        <v>1.2</v>
-      </c>
       <c r="AB21">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AC21">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="AD21">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE21">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AF21">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AG21">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AH21">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AI21">
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="s">
         <v>107</v>
@@ -3254,18 +3254,18 @@
         <v>125</v>
       </c>
       <c r="AM21">
-        <v>2018</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>23706</v>
+        <v>24274</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -3277,91 +3277,91 @@
         <v>80</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="O22">
-        <v>18.9</v>
+        <v>17.8</v>
       </c>
       <c r="P22">
-        <v>0.531</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q22">
+        <v>1.4</v>
+      </c>
+      <c r="R22">
+        <v>3.3</v>
+      </c>
+      <c r="S22">
+        <v>0.406</v>
+      </c>
+      <c r="T22">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U22">
+        <v>14.5</v>
+      </c>
+      <c r="V22">
+        <v>0.602</v>
+      </c>
+      <c r="W22">
+        <v>0.603</v>
+      </c>
+      <c r="X22">
+        <v>5.3</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <v>0.753</v>
+      </c>
+      <c r="AA22">
+        <v>1.3</v>
+      </c>
+      <c r="AB22">
+        <v>6.8</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AD22">
+        <v>7.3</v>
+      </c>
+      <c r="AE22">
+        <v>1.7</v>
+      </c>
+      <c r="AF22">
         <v>0.9</v>
       </c>
-      <c r="R22">
-        <v>2.4</v>
-      </c>
-      <c r="S22">
-        <v>0.362</v>
-      </c>
-      <c r="T22">
-        <v>9.1</v>
-      </c>
-      <c r="U22">
-        <v>16.5</v>
-      </c>
-      <c r="V22">
-        <v>0.556</v>
-      </c>
-      <c r="W22">
-        <v>0.554</v>
-      </c>
-      <c r="X22">
-        <v>6.2</v>
-      </c>
-      <c r="Y22">
-        <v>8.1</v>
-      </c>
-      <c r="Z22">
-        <v>0.771</v>
-      </c>
-      <c r="AA22">
-        <v>1.5</v>
-      </c>
-      <c r="AB22">
-        <v>6.4</v>
-      </c>
-      <c r="AC22">
-        <v>7.9</v>
-      </c>
-      <c r="AD22">
-        <v>6.2</v>
-      </c>
-      <c r="AE22">
-        <v>1.9</v>
-      </c>
-      <c r="AF22">
-        <v>0.8</v>
-      </c>
       <c r="AG22">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AH22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AI22">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="AJ22" t="s">
         <v>108</v>
@@ -3373,18 +3373,18 @@
         <v>125</v>
       </c>
       <c r="AM22">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23">
-        <v>26107</v>
+        <v>26106</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
@@ -3393,7 +3393,7 @@
         <v>1984</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23">
         <v>32</v>
@@ -3497,13 +3497,13 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24">
-        <v>18076</v>
+        <v>10425</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
@@ -3512,13 +3512,13 @@
         <v>1963</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
@@ -3527,79 +3527,79 @@
         <v>86</v>
       </c>
       <c r="K24">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>34.9</v>
+        <v>25.1</v>
       </c>
       <c r="N24">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O24">
-        <v>22.1</v>
+        <v>18.2</v>
       </c>
       <c r="P24">
-        <v>0.416</v>
+        <v>0.457</v>
       </c>
       <c r="Q24">
         <v>0.2</v>
       </c>
       <c r="R24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0.189</v>
+        <v>0.167</v>
       </c>
       <c r="T24">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U24">
-        <v>21.2</v>
+        <v>17.2</v>
       </c>
       <c r="V24">
-        <v>0.426</v>
+        <v>0.474</v>
       </c>
       <c r="W24">
-        <v>0.42</v>
+        <v>0.462</v>
       </c>
       <c r="X24">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y24">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="Z24">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB24">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="AC24">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD24">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="AE24">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AF24">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AG24">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI24">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AJ24" t="s">
         <v>110</v>
@@ -3611,18 +3611,18 @@
         <v>125</v>
       </c>
       <c r="AM24">
-        <v>2002</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25">
-        <v>14913</v>
+        <v>11647</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
@@ -3634,91 +3634,91 @@
         <v>78</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25">
-        <v>37.7</v>
+        <v>40.2</v>
       </c>
       <c r="N25">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="O25">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="P25">
-        <v>0.495</v>
+        <v>0.538</v>
       </c>
       <c r="Q25">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="R25">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="S25">
-        <v>0.427</v>
+        <v>0.276</v>
       </c>
       <c r="T25">
+        <v>11.6</v>
+      </c>
+      <c r="U25">
+        <v>21</v>
+      </c>
+      <c r="V25">
+        <v>0.553</v>
+      </c>
+      <c r="W25">
+        <v>0.546</v>
+      </c>
+      <c r="X25">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y25">
         <v>9.800000000000001</v>
       </c>
-      <c r="U25">
-        <v>19.4</v>
-      </c>
-      <c r="V25">
-        <v>0.506</v>
-      </c>
-      <c r="W25">
-        <v>0.525</v>
-      </c>
-      <c r="X25">
-        <v>6.7</v>
-      </c>
-      <c r="Y25">
-        <v>8</v>
-      </c>
       <c r="Z25">
-        <v>0.834</v>
+        <v>0.85</v>
       </c>
       <c r="AA25">
         <v>1.8</v>
       </c>
       <c r="AB25">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC25">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="AE25">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="AF25">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG25">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AH25">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AI25">
-        <v>30.4</v>
+        <v>32.5</v>
       </c>
       <c r="AJ25" t="s">
         <v>111</v>
@@ -3730,18 +3730,18 @@
         <v>125</v>
       </c>
       <c r="AM25">
-        <v>1996</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26">
-        <v>14392</v>
+        <v>18076</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
@@ -3750,13 +3750,13 @@
         <v>1963</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
         <v>82</v>
@@ -3765,79 +3765,79 @@
         <v>87</v>
       </c>
       <c r="K26">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>39.3</v>
+        <v>34.9</v>
       </c>
       <c r="N26">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O26">
-        <v>23.8</v>
+        <v>22.1</v>
       </c>
       <c r="P26">
-        <v>0.411</v>
+        <v>0.416</v>
       </c>
       <c r="Q26">
+        <v>0.2</v>
+      </c>
+      <c r="R26">
         <v>0.9</v>
       </c>
-      <c r="R26">
-        <v>1.9</v>
-      </c>
       <c r="S26">
-        <v>0.5</v>
+        <v>0.189</v>
       </c>
       <c r="T26">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="V26">
-        <v>0.403</v>
+        <v>0.426</v>
       </c>
       <c r="W26">
-        <v>0.431</v>
+        <v>0.42</v>
       </c>
       <c r="X26">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="Y26">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="Z26">
-        <v>0.801</v>
+        <v>0.79</v>
       </c>
       <c r="AA26">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AC26">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD26">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE26">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AF26">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG26">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH26">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AI26">
-        <v>26.9</v>
+        <v>22.9</v>
       </c>
       <c r="AJ26" t="s">
         <v>112</v>
@@ -3849,18 +3849,18 @@
         <v>125</v>
       </c>
       <c r="AM26">
-        <v>1995</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27">
-        <v>16041</v>
+        <v>12079</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -3872,16 +3872,16 @@
         <v>78</v>
       </c>
       <c r="G27">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
         <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27">
         <v>82</v>
@@ -3890,73 +3890,73 @@
         <v>82</v>
       </c>
       <c r="M27">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="O27">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="P27">
-        <v>0.465</v>
+        <v>0.526</v>
       </c>
       <c r="Q27">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="R27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>0.238</v>
+        <v>0.376</v>
       </c>
       <c r="T27">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="U27">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V27">
-        <v>0.482</v>
+        <v>0.548</v>
       </c>
       <c r="W27">
-        <v>0.473</v>
+        <v>0.55</v>
       </c>
       <c r="X27">
+        <v>7.2</v>
+      </c>
+      <c r="Y27">
+        <v>8.5</v>
+      </c>
+      <c r="Z27">
+        <v>0.848</v>
+      </c>
+      <c r="AA27">
+        <v>1.7</v>
+      </c>
+      <c r="AB27">
+        <v>5.1</v>
+      </c>
+      <c r="AC27">
         <v>6.9</v>
       </c>
-      <c r="Y27">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z27">
-        <v>0.784</v>
-      </c>
-      <c r="AA27">
-        <v>1.6</v>
-      </c>
-      <c r="AB27">
-        <v>4.2</v>
-      </c>
-      <c r="AC27">
-        <v>5.8</v>
-      </c>
       <c r="AD27">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE27">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="AF27">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AG27">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AH27">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AI27">
-        <v>28.7</v>
+        <v>33.6</v>
       </c>
       <c r="AJ27" t="s">
         <v>113</v>
@@ -3968,18 +3968,18 @@
         <v>125</v>
       </c>
       <c r="AM27">
-        <v>1998</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28">
-        <v>11647</v>
+        <v>10057</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -3991,91 +3991,91 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28">
-        <v>40.2</v>
+        <v>38.3</v>
       </c>
       <c r="N28">
-        <v>11.9</v>
+        <v>10.2</v>
       </c>
       <c r="O28">
-        <v>22.2</v>
+        <v>19.8</v>
       </c>
       <c r="P28">
-        <v>0.538</v>
+        <v>0.515</v>
       </c>
       <c r="Q28">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R28">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="S28">
-        <v>0.276</v>
+        <v>0.173</v>
       </c>
       <c r="T28">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="U28">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="V28">
-        <v>0.553</v>
+        <v>0.526</v>
       </c>
       <c r="W28">
-        <v>0.546</v>
+        <v>0.518</v>
       </c>
       <c r="X28">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="Y28">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="Z28">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="AA28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB28">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="AC28">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD28">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AE28">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AF28">
         <v>0.8</v>
       </c>
       <c r="AG28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AI28">
-        <v>32.5</v>
+        <v>28.2</v>
       </c>
       <c r="AJ28" t="s">
         <v>114</v>
@@ -4087,18 +4087,18 @@
         <v>125</v>
       </c>
       <c r="AM28">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29">
-        <v>12079</v>
+        <v>14913</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="C29">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -4110,16 +4110,16 @@
         <v>78</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
         <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29">
         <v>82</v>
@@ -4128,73 +4128,73 @@
         <v>82</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>37.7</v>
       </c>
       <c r="N29">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="O29">
-        <v>24</v>
+        <v>22.6</v>
       </c>
       <c r="P29">
-        <v>0.526</v>
+        <v>0.495</v>
       </c>
       <c r="Q29">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S29">
-        <v>0.376</v>
+        <v>0.427</v>
       </c>
       <c r="T29">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U29">
-        <v>21</v>
+        <v>19.4</v>
       </c>
       <c r="V29">
-        <v>0.548</v>
+        <v>0.506</v>
       </c>
       <c r="W29">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="X29">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="Y29">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z29">
-        <v>0.848</v>
+        <v>0.834</v>
       </c>
       <c r="AA29">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB29">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AC29">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD29">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="AE29">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AF29">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AG29">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AH29">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI29">
-        <v>33.6</v>
+        <v>30.4</v>
       </c>
       <c r="AJ29" t="s">
         <v>115</v>
@@ -4206,18 +4206,18 @@
         <v>125</v>
       </c>
       <c r="AM29">
-        <v>1990</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30">
-        <v>12543</v>
+        <v>12990</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -4229,91 +4229,91 @@
         <v>78</v>
       </c>
       <c r="G30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" t="s">
         <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L30">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>38.8</v>
       </c>
       <c r="N30">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="O30">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="P30">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="Q30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R30">
+        <v>1.3</v>
+      </c>
+      <c r="S30">
+        <v>0.27</v>
+      </c>
+      <c r="T30">
+        <v>11.5</v>
+      </c>
+      <c r="U30">
+        <v>21.5</v>
+      </c>
+      <c r="V30">
+        <v>0.533</v>
+      </c>
+      <c r="W30">
+        <v>0.526</v>
+      </c>
+      <c r="X30">
+        <v>6.1</v>
+      </c>
+      <c r="Y30">
+        <v>7.4</v>
+      </c>
+      <c r="Z30">
+        <v>0.832</v>
+      </c>
+      <c r="AA30">
         <v>1.1</v>
       </c>
-      <c r="S30">
-        <v>0.312</v>
-      </c>
-      <c r="T30">
-        <v>11.7</v>
-      </c>
-      <c r="U30">
-        <v>21.3</v>
-      </c>
-      <c r="V30">
-        <v>0.551</v>
-      </c>
-      <c r="W30">
-        <v>0.547</v>
-      </c>
-      <c r="X30">
-        <v>7</v>
-      </c>
-      <c r="Y30">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z30">
-        <v>0.851</v>
-      </c>
-      <c r="AA30">
-        <v>1.4</v>
-      </c>
       <c r="AB30">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC30">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AD30">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE30">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AG30">
         <v>2.5</v>
       </c>
       <c r="AH30">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI30">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="AJ30" t="s">
         <v>116</v>
@@ -4325,18 +4325,18 @@
         <v>125</v>
       </c>
       <c r="AM30">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31">
-        <v>11208</v>
+        <v>16041</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="C31">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
@@ -4348,16 +4348,16 @@
         <v>78</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
         <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31">
         <v>82</v>
@@ -4366,73 +4366,73 @@
         <v>82</v>
       </c>
       <c r="M31">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="N31">
-        <v>13</v>
+        <v>10.7</v>
       </c>
       <c r="O31">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="P31">
-        <v>0.535</v>
+        <v>0.465</v>
       </c>
       <c r="Q31">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R31">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="S31">
-        <v>0.132</v>
+        <v>0.238</v>
       </c>
       <c r="T31">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="U31">
-        <v>23.7</v>
+        <v>21.5</v>
       </c>
       <c r="V31">
-        <v>0.546</v>
+        <v>0.482</v>
       </c>
       <c r="W31">
-        <v>0.537</v>
+        <v>0.473</v>
       </c>
       <c r="X31">
+        <v>6.9</v>
+      </c>
+      <c r="Y31">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y31">
-        <v>10.5</v>
-      </c>
       <c r="Z31">
-        <v>0.841</v>
+        <v>0.784</v>
       </c>
       <c r="AA31">
+        <v>1.6</v>
+      </c>
+      <c r="AB31">
+        <v>4.2</v>
+      </c>
+      <c r="AC31">
+        <v>5.8</v>
+      </c>
+      <c r="AD31">
+        <v>3.5</v>
+      </c>
+      <c r="AE31">
         <v>1.7</v>
       </c>
-      <c r="AB31">
-        <v>3.8</v>
-      </c>
-      <c r="AC31">
-        <v>5.5</v>
-      </c>
-      <c r="AD31">
-        <v>5.9</v>
-      </c>
-      <c r="AE31">
-        <v>3.2</v>
-      </c>
       <c r="AF31">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AG31">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH31">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="AI31">
-        <v>35</v>
+        <v>28.7</v>
       </c>
       <c r="AJ31" t="s">
         <v>117</v>
@@ -4444,18 +4444,18 @@
         <v>125</v>
       </c>
       <c r="AM31">
-        <v>1988</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32">
-        <v>15484</v>
+        <v>12543</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
@@ -4467,16 +4467,16 @@
         <v>78</v>
       </c>
       <c r="G32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I32" t="s">
         <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32">
         <v>82</v>
@@ -4485,73 +4485,73 @@
         <v>82</v>
       </c>
       <c r="M32">
-        <v>37.9</v>
+        <v>37</v>
       </c>
       <c r="N32">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="O32">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="P32">
-        <v>0.486</v>
+        <v>0.539</v>
       </c>
       <c r="Q32">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="R32">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="S32">
-        <v>0.374</v>
+        <v>0.312</v>
       </c>
       <c r="T32">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="U32">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="V32">
-        <v>0.507</v>
+        <v>0.551</v>
       </c>
       <c r="W32">
-        <v>0.516</v>
+        <v>0.547</v>
       </c>
       <c r="X32">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="Y32">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.833</v>
+        <v>0.851</v>
       </c>
       <c r="AA32">
         <v>1.4</v>
       </c>
       <c r="AB32">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC32">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD32">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE32">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AF32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AH32">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI32">
-        <v>29.6</v>
+        <v>31.5</v>
       </c>
       <c r="AJ32" t="s">
         <v>118</v>
@@ -4563,18 +4563,18 @@
         <v>125</v>
       </c>
       <c r="AM32">
-        <v>1997</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33">
-        <v>10057</v>
+        <v>11208</v>
       </c>
       <c r="B33" t="s">
         <v>70</v>
       </c>
       <c r="C33">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D33" t="s">
         <v>77</v>
@@ -4586,16 +4586,16 @@
         <v>78</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
         <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33">
         <v>82</v>
@@ -4604,16 +4604,16 @@
         <v>82</v>
       </c>
       <c r="M33">
-        <v>38.3</v>
+        <v>40.4</v>
       </c>
       <c r="N33">
-        <v>10.2</v>
+        <v>13</v>
       </c>
       <c r="O33">
-        <v>19.8</v>
+        <v>24.4</v>
       </c>
       <c r="P33">
-        <v>0.515</v>
+        <v>0.535</v>
       </c>
       <c r="Q33">
         <v>0.1</v>
@@ -4622,55 +4622,55 @@
         <v>0.6</v>
       </c>
       <c r="S33">
-        <v>0.173</v>
+        <v>0.132</v>
       </c>
       <c r="T33">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="U33">
-        <v>19.2</v>
+        <v>23.7</v>
       </c>
       <c r="V33">
-        <v>0.526</v>
+        <v>0.546</v>
       </c>
       <c r="W33">
-        <v>0.518</v>
+        <v>0.537</v>
       </c>
       <c r="X33">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="Z33">
-        <v>0.845</v>
+        <v>0.841</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AB33">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AC33">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD33">
         <v>5.9</v>
       </c>
       <c r="AE33">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AF33">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AG33">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AH33">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AI33">
-        <v>28.2</v>
+        <v>35</v>
       </c>
       <c r="AJ33" t="s">
         <v>119</v>
@@ -4682,18 +4682,18 @@
         <v>125</v>
       </c>
       <c r="AM33">
-        <v>1985</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34">
-        <v>13459</v>
+        <v>15484</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -4705,91 +4705,91 @@
         <v>78</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
         <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L34">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M34">
-        <v>39.3</v>
+        <v>37.9</v>
       </c>
       <c r="N34">
-        <v>12.7</v>
+        <v>11.2</v>
       </c>
       <c r="O34">
-        <v>25.7</v>
+        <v>23.1</v>
       </c>
       <c r="P34">
-        <v>0.495</v>
+        <v>0.486</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="R34">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="S34">
-        <v>0.352</v>
+        <v>0.374</v>
       </c>
       <c r="T34">
-        <v>11.7</v>
+        <v>9.9</v>
       </c>
       <c r="U34">
-        <v>22.7</v>
+        <v>19.5</v>
       </c>
       <c r="V34">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="W34">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="X34">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y34">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="Z34">
-        <v>0.837</v>
+        <v>0.833</v>
       </c>
       <c r="AA34">
+        <v>1.4</v>
+      </c>
+      <c r="AB34">
+        <v>4.5</v>
+      </c>
+      <c r="AC34">
+        <v>5.9</v>
+      </c>
+      <c r="AD34">
+        <v>4.3</v>
+      </c>
+      <c r="AE34">
         <v>1.7</v>
       </c>
-      <c r="AB34">
-        <v>5</v>
-      </c>
-      <c r="AC34">
-        <v>6.7</v>
-      </c>
-      <c r="AD34">
-        <v>5.5</v>
-      </c>
-      <c r="AE34">
-        <v>2.8</v>
-      </c>
       <c r="AF34">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG34">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AH34">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AI34">
-        <v>32.6</v>
+        <v>29.6</v>
       </c>
       <c r="AJ34" t="s">
         <v>120</v>
@@ -4801,18 +4801,18 @@
         <v>125</v>
       </c>
       <c r="AM34">
-        <v>1993</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35">
-        <v>10425</v>
+        <v>14392</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="C35">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
@@ -4824,91 +4824,91 @@
         <v>78</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
         <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>25.1</v>
+        <v>39.3</v>
       </c>
       <c r="N35">
-        <v>8.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O35">
-        <v>18.2</v>
+        <v>23.8</v>
       </c>
       <c r="P35">
-        <v>0.457</v>
+        <v>0.411</v>
       </c>
       <c r="Q35">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>0.167</v>
+        <v>0.5</v>
       </c>
       <c r="T35">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U35">
-        <v>17.2</v>
+        <v>21.9</v>
       </c>
       <c r="V35">
-        <v>0.474</v>
+        <v>0.403</v>
       </c>
       <c r="W35">
-        <v>0.462</v>
+        <v>0.431</v>
       </c>
       <c r="X35">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y35">
+        <v>8</v>
+      </c>
+      <c r="Z35">
+        <v>0.801</v>
+      </c>
+      <c r="AA35">
+        <v>1.5</v>
+      </c>
+      <c r="AB35">
+        <v>5.4</v>
+      </c>
+      <c r="AC35">
         <v>6.9</v>
       </c>
-      <c r="Z35">
-        <v>0.84</v>
-      </c>
-      <c r="AA35">
-        <v>1.3</v>
-      </c>
-      <c r="AB35">
-        <v>2.3</v>
-      </c>
-      <c r="AC35">
-        <v>3.6</v>
-      </c>
       <c r="AD35">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="AE35">
+        <v>1.8</v>
+      </c>
+      <c r="AF35">
+        <v>0.8</v>
+      </c>
+      <c r="AG35">
         <v>2.1</v>
       </c>
-      <c r="AF35">
-        <v>1.2</v>
-      </c>
-      <c r="AG35">
-        <v>2.5</v>
-      </c>
       <c r="AH35">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AI35">
-        <v>22.7</v>
+        <v>26.9</v>
       </c>
       <c r="AJ35" t="s">
         <v>121</v>
@@ -4920,18 +4920,18 @@
         <v>125</v>
       </c>
       <c r="AM35">
-        <v>1986</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36">
-        <v>10813</v>
+        <v>13459</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -4943,91 +4943,91 @@
         <v>78</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
         <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>39.3</v>
       </c>
       <c r="N36">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="O36">
-        <v>27.8</v>
+        <v>25.7</v>
       </c>
       <c r="P36">
-        <v>0.482</v>
+        <v>0.495</v>
       </c>
       <c r="Q36">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R36">
+        <v>2.9</v>
+      </c>
+      <c r="S36">
+        <v>0.352</v>
+      </c>
+      <c r="T36">
+        <v>11.7</v>
+      </c>
+      <c r="U36">
+        <v>22.7</v>
+      </c>
+      <c r="V36">
+        <v>0.514</v>
+      </c>
+      <c r="W36">
+        <v>0.515</v>
+      </c>
+      <c r="X36">
+        <v>6.1</v>
+      </c>
+      <c r="Y36">
+        <v>7.3</v>
+      </c>
+      <c r="Z36">
+        <v>0.837</v>
+      </c>
+      <c r="AA36">
+        <v>1.7</v>
+      </c>
+      <c r="AB36">
+        <v>5</v>
+      </c>
+      <c r="AC36">
+        <v>6.7</v>
+      </c>
+      <c r="AD36">
+        <v>5.5</v>
+      </c>
+      <c r="AE36">
+        <v>2.8</v>
+      </c>
+      <c r="AF36">
         <v>0.8</v>
       </c>
-      <c r="S36">
-        <v>0.182</v>
-      </c>
-      <c r="T36">
-        <v>13.2</v>
-      </c>
-      <c r="U36">
-        <v>27</v>
-      </c>
-      <c r="V36">
-        <v>0.491</v>
-      </c>
-      <c r="W36">
-        <v>0.484</v>
-      </c>
-      <c r="X36">
-        <v>10.2</v>
-      </c>
-      <c r="Y36">
-        <v>11.9</v>
-      </c>
-      <c r="Z36">
-        <v>0.857</v>
-      </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
-        <v>3.2</v>
-      </c>
-      <c r="AC36">
-        <v>5.2</v>
-      </c>
-      <c r="AD36">
-        <v>4.6</v>
-      </c>
-      <c r="AE36">
-        <v>2.9</v>
-      </c>
-      <c r="AF36">
-        <v>1.5</v>
-      </c>
       <c r="AG36">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AH36">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI36">
-        <v>37.1</v>
+        <v>32.6</v>
       </c>
       <c r="AJ36" t="s">
         <v>122</v>
@@ -5039,18 +5039,18 @@
         <v>125</v>
       </c>
       <c r="AM36">
-        <v>1987</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37">
-        <v>12990</v>
+        <v>10813</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -5062,91 +5062,91 @@
         <v>78</v>
       </c>
       <c r="G37">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L37">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M37">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="N37">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
       <c r="O37">
-        <v>22.7</v>
+        <v>27.8</v>
       </c>
       <c r="P37">
-        <v>0.519</v>
+        <v>0.482</v>
       </c>
       <c r="Q37">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R37">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="S37">
-        <v>0.27</v>
+        <v>0.182</v>
       </c>
       <c r="T37">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="U37">
-        <v>21.5</v>
+        <v>27</v>
       </c>
       <c r="V37">
-        <v>0.533</v>
+        <v>0.491</v>
       </c>
       <c r="W37">
-        <v>0.526</v>
+        <v>0.484</v>
       </c>
       <c r="X37">
-        <v>6.1</v>
+        <v>10.2</v>
       </c>
       <c r="Y37">
-        <v>7.4</v>
+        <v>11.9</v>
       </c>
       <c r="Z37">
-        <v>0.832</v>
+        <v>0.857</v>
       </c>
       <c r="AA37">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AB37">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC37">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD37">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="AE37">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AF37">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AG37">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH37">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AI37">
-        <v>30.1</v>
+        <v>37.1</v>
       </c>
       <c r="AJ37" t="s">
         <v>123</v>
@@ -5158,7 +5158,7 @@
         <v>125</v>
       </c>
       <c r="AM37">
-        <v>1992</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="38" spans="1:39">
@@ -5169,7 +5169,7 @@
         <v>75</v>
       </c>
       <c r="C38">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
@@ -5178,7 +5178,7 @@
         <v>1963</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38">
         <v>40</v>
@@ -5190,7 +5190,7 @@
         <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38">
         <v>82</v>
